--- a/data/nzd0007/nzd0007.xlsx
+++ b/data/nzd0007/nzd0007.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL99"/>
+  <dimension ref="A1:AL101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10506,7 +10506,9 @@
           <t>2024-11-25 22:17:51+00:00</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>337.3944444444444</v>
+      </c>
       <c r="C99" t="n">
         <v>330.8544444444445</v>
       </c>
@@ -10537,9 +10539,7 @@
       <c r="L99" t="n">
         <v>384.5626315789473</v>
       </c>
-      <c r="M99" t="n">
-        <v>381.63</v>
-      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
         <v>380.49</v>
       </c>
@@ -10613,6 +10613,244 @@
         <v>344.0454545454546</v>
       </c>
       <c r="AL99" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>322.1266666666667</v>
+      </c>
+      <c r="C100" t="n">
+        <v>313.7066666666667</v>
+      </c>
+      <c r="D100" t="n">
+        <v>318.0466666666667</v>
+      </c>
+      <c r="E100" t="n">
+        <v>309.6230769230769</v>
+      </c>
+      <c r="F100" t="n">
+        <v>348.4127272727272</v>
+      </c>
+      <c r="G100" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="H100" t="n">
+        <v>369.22</v>
+      </c>
+      <c r="I100" t="n">
+        <v>373.22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>379.64</v>
+      </c>
+      <c r="K100" t="n">
+        <v>389.5466666666667</v>
+      </c>
+      <c r="L100" t="n">
+        <v>384.6042105263158</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>374.1930769230769</v>
+      </c>
+      <c r="O100" t="n">
+        <v>367.43</v>
+      </c>
+      <c r="P100" t="n">
+        <v>365.6666666666667</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>356.76</v>
+      </c>
+      <c r="R100" t="n">
+        <v>346.7127272727272</v>
+      </c>
+      <c r="S100" t="n">
+        <v>343.42</v>
+      </c>
+      <c r="T100" t="n">
+        <v>342.4027272727272</v>
+      </c>
+      <c r="U100" t="n">
+        <v>333.2166666666667</v>
+      </c>
+      <c r="V100" t="n">
+        <v>322.0127272727273</v>
+      </c>
+      <c r="W100" t="n">
+        <v>313.8530769230769</v>
+      </c>
+      <c r="X100" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>315.37</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>312.8427272727272</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>316.84</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>302.15</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>286.29</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>296.63</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>293.16</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>297.89</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>304.5566666666667</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>326.0166666666667</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>324.7</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>344.27</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>343.0127272727273</v>
+      </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>305.7888888888889</v>
+      </c>
+      <c r="C101" t="n">
+        <v>313.3088888888889</v>
+      </c>
+      <c r="D101" t="n">
+        <v>288.2188888888889</v>
+      </c>
+      <c r="E101" t="n">
+        <v>299.8861538461539</v>
+      </c>
+      <c r="F101" t="n">
+        <v>332.2572727272727</v>
+      </c>
+      <c r="G101" t="n">
+        <v>343.525</v>
+      </c>
+      <c r="H101" t="n">
+        <v>344.9642857142857</v>
+      </c>
+      <c r="I101" t="n">
+        <v>353.3566666666667</v>
+      </c>
+      <c r="J101" t="n">
+        <v>365.0390476190477</v>
+      </c>
+      <c r="K101" t="n">
+        <v>385.9188888888889</v>
+      </c>
+      <c r="L101" t="n">
+        <v>373.5142105263158</v>
+      </c>
+      <c r="M101" t="n">
+        <v>346.31</v>
+      </c>
+      <c r="N101" t="n">
+        <v>343.5861538461539</v>
+      </c>
+      <c r="O101" t="n">
+        <v>343.6266666666667</v>
+      </c>
+      <c r="P101" t="n">
+        <v>344.1288888888889</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>350.4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>339.7072727272728</v>
+      </c>
+      <c r="S101" t="n">
+        <v>339.9185714285715</v>
+      </c>
+      <c r="T101" t="n">
+        <v>323.0572727272727</v>
+      </c>
+      <c r="U101" t="n">
+        <v>321.4188888888889</v>
+      </c>
+      <c r="V101" t="n">
+        <v>302.9572727272728</v>
+      </c>
+      <c r="W101" t="n">
+        <v>287.6061538461539</v>
+      </c>
+      <c r="X101" t="n">
+        <v>279.2233333333334</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>287.59</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>298.7372727272727</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>301.23</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>271.48</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>276.1366666666667</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>286.12</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>288.29</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>298.2988888888889</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>308.5088888888889</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>318.36</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>340.44</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>333.3472727272728</v>
+      </c>
+      <c r="AL101" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10629,7 +10867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11647,6 +11885,26 @@
       </c>
       <c r="B101" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -11815,28 +12073,28 @@
         <v>0.0606</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2656678582826107</v>
+        <v>-0.09907934318796813</v>
       </c>
       <c r="J2" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01537179001243416</v>
+        <v>0.002147218047464206</v>
       </c>
       <c r="M2" t="n">
-        <v>14.08927471993583</v>
+        <v>14.29892982576876</v>
       </c>
       <c r="N2" t="n">
-        <v>302.9445654282401</v>
+        <v>313.7999754968811</v>
       </c>
       <c r="O2" t="n">
-        <v>17.40530279622392</v>
+        <v>17.71440022966855</v>
       </c>
       <c r="P2" t="n">
-        <v>309.4539190724042</v>
+        <v>308.138299385893</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -11892,28 +12150,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08767214908861645</v>
+        <v>0.1631178991918502</v>
       </c>
       <c r="J3" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001178638224587747</v>
+        <v>0.004227915897003331</v>
       </c>
       <c r="M3" t="n">
-        <v>16.31319458018395</v>
+        <v>16.09251892197864</v>
       </c>
       <c r="N3" t="n">
-        <v>434.7557165910451</v>
+        <v>423.4615154383359</v>
       </c>
       <c r="O3" t="n">
-        <v>20.85079654572086</v>
+        <v>20.57818056676382</v>
       </c>
       <c r="P3" t="n">
-        <v>297.9094942518296</v>
+        <v>297.2917470472474</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -11969,28 +12227,28 @@
         <v>0.0523</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01893058233381321</v>
+        <v>0.01715234143712766</v>
       </c>
       <c r="J4" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" t="n">
-        <v>5.185852504197008e-05</v>
+        <v>4.396257037275753e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>17.73258300061839</v>
+        <v>17.56551978324213</v>
       </c>
       <c r="N4" t="n">
-        <v>446.9789469047847</v>
+        <v>439.3761264681054</v>
       </c>
       <c r="O4" t="n">
-        <v>21.14187661738628</v>
+        <v>20.96130068645802</v>
       </c>
       <c r="P4" t="n">
-        <v>297.1068948177572</v>
+        <v>296.8125804992174</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12046,28 +12304,28 @@
         <v>0.0851</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.189103719475947</v>
+        <v>-0.1797736164180997</v>
       </c>
       <c r="J5" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005869627083047169</v>
+        <v>0.005614331470238265</v>
       </c>
       <c r="M5" t="n">
-        <v>15.53400839951592</v>
+        <v>15.11685650397679</v>
       </c>
       <c r="N5" t="n">
-        <v>379.1644447673238</v>
+        <v>365.3146357610908</v>
       </c>
       <c r="O5" t="n">
-        <v>19.47214535605473</v>
+        <v>19.11320579497565</v>
       </c>
       <c r="P5" t="n">
-        <v>307.7663019918191</v>
+        <v>307.6893734105105</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12123,28 +12381,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0853482200329983</v>
+        <v>-0.005441840721179914</v>
       </c>
       <c r="J6" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0015024959635348</v>
+        <v>6.311779382928151e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>13.88427757703463</v>
+        <v>13.88206951990748</v>
       </c>
       <c r="N6" t="n">
-        <v>304.1256908297817</v>
+        <v>301.846263387208</v>
       </c>
       <c r="O6" t="n">
-        <v>17.439199833415</v>
+        <v>17.37372335992513</v>
       </c>
       <c r="P6" t="n">
-        <v>328.4502231691222</v>
+        <v>327.7915528183903</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -12200,28 +12458,28 @@
         <v>0.1072</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2253676114065436</v>
+        <v>-0.1434738551305911</v>
       </c>
       <c r="J7" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006009473508258423</v>
+        <v>0.002513995893486665</v>
       </c>
       <c r="M7" t="n">
-        <v>18.08947699562753</v>
+        <v>17.87167524358106</v>
       </c>
       <c r="N7" t="n">
-        <v>492.3218228085777</v>
+        <v>486.2181498390597</v>
       </c>
       <c r="O7" t="n">
-        <v>22.1883262732586</v>
+        <v>22.05035486877841</v>
       </c>
       <c r="P7" t="n">
-        <v>347.9793681819938</v>
+        <v>347.2379748691117</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -12271,28 +12529,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1824199948248384</v>
+        <v>-0.08669766494330503</v>
       </c>
       <c r="J8" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004314375891554145</v>
+        <v>0.001003997013983016</v>
       </c>
       <c r="M8" t="n">
-        <v>17.02689043186668</v>
+        <v>16.82520857153586</v>
       </c>
       <c r="N8" t="n">
-        <v>435.0301534923642</v>
+        <v>431.8788710806451</v>
       </c>
       <c r="O8" t="n">
-        <v>20.85737647673754</v>
+        <v>20.78169557761457</v>
       </c>
       <c r="P8" t="n">
-        <v>346.3113295222537</v>
+        <v>345.4263604393465</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -12348,28 +12606,28 @@
         <v>0.0825</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3161737865181148</v>
+        <v>-0.2195798530904711</v>
       </c>
       <c r="J9" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01197108572870909</v>
+        <v>0.005953408568671215</v>
       </c>
       <c r="M9" t="n">
-        <v>18.57983256679186</v>
+        <v>18.44491020749007</v>
       </c>
       <c r="N9" t="n">
-        <v>527.1036700616559</v>
+        <v>524.1463319576004</v>
       </c>
       <c r="O9" t="n">
-        <v>22.95873842487117</v>
+        <v>22.89424233202751</v>
       </c>
       <c r="P9" t="n">
-        <v>351.839485015719</v>
+        <v>351.0460760635587</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -12419,28 +12677,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.2467852038842293</v>
+        <v>0.3098713440855972</v>
       </c>
       <c r="J10" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007557205376245713</v>
+        <v>0.01247756428883773</v>
       </c>
       <c r="M10" t="n">
-        <v>18.21595238432987</v>
+        <v>17.84244308520288</v>
       </c>
       <c r="N10" t="n">
-        <v>512.1038348459259</v>
+        <v>499.1938803035266</v>
       </c>
       <c r="O10" t="n">
-        <v>22.62971132926635</v>
+        <v>22.34264711943342</v>
       </c>
       <c r="P10" t="n">
-        <v>355.2234641965708</v>
+        <v>354.7179592871914</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -12496,28 +12754,28 @@
         <v>0.0541</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2120725490006425</v>
+        <v>0.3170324109874441</v>
       </c>
       <c r="J11" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004475170394310668</v>
+        <v>0.01022568178864813</v>
       </c>
       <c r="M11" t="n">
-        <v>21.0726870530579</v>
+        <v>20.99503383318904</v>
       </c>
       <c r="N11" t="n">
-        <v>635.9669521386139</v>
+        <v>630.3487152158364</v>
       </c>
       <c r="O11" t="n">
-        <v>25.21838520085324</v>
+        <v>25.10674640840259</v>
       </c>
       <c r="P11" t="n">
-        <v>360.3954141929146</v>
+        <v>359.5319208728065</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -12567,28 +12825,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.07263560607878455</v>
+        <v>0.1462438682472248</v>
       </c>
       <c r="J12" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006366977943461638</v>
+        <v>0.002656866035499195</v>
       </c>
       <c r="M12" t="n">
-        <v>18.03310592349878</v>
+        <v>17.91429481655223</v>
       </c>
       <c r="N12" t="n">
-        <v>510.040169941948</v>
+        <v>502.8407433436611</v>
       </c>
       <c r="O12" t="n">
-        <v>22.58406894122377</v>
+        <v>22.42411075926225</v>
       </c>
       <c r="P12" t="n">
-        <v>361.2308576114804</v>
+        <v>360.6021880730624</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -12644,28 +12902,28 @@
         <v>0.0614</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0533508530397922</v>
+        <v>-0.1315279258883187</v>
       </c>
       <c r="J13" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
         <v>75</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003158811578118925</v>
+        <v>0.001945483410322302</v>
       </c>
       <c r="M13" t="n">
-        <v>18.77961072295891</v>
+        <v>18.51347958863737</v>
       </c>
       <c r="N13" t="n">
-        <v>561.8003137206746</v>
+        <v>554.155246647093</v>
       </c>
       <c r="O13" t="n">
-        <v>23.70232717942849</v>
+        <v>23.54050225987315</v>
       </c>
       <c r="P13" t="n">
-        <v>357.8086554629565</v>
+        <v>358.4543640235655</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -12721,28 +12979,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1823816839227092</v>
+        <v>-0.1519159503659349</v>
       </c>
       <c r="J14" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004382270424081236</v>
+        <v>0.003128044530178675</v>
       </c>
       <c r="M14" t="n">
-        <v>17.26630046856151</v>
+        <v>17.24246054589388</v>
       </c>
       <c r="N14" t="n">
-        <v>470.1361728787078</v>
+        <v>465.930783031129</v>
       </c>
       <c r="O14" t="n">
-        <v>21.68262375448847</v>
+        <v>21.58542987830284</v>
       </c>
       <c r="P14" t="n">
-        <v>355.3989322506202</v>
+        <v>355.1521044534091</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -12798,28 +13056,28 @@
         <v>0.0755</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09430137578376634</v>
+        <v>-0.07374908557192009</v>
       </c>
       <c r="J15" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001586398642541287</v>
+        <v>0.001000396004983806</v>
       </c>
       <c r="M15" t="n">
-        <v>15.15979524641786</v>
+        <v>15.08428410696742</v>
       </c>
       <c r="N15" t="n">
-        <v>351.6213049505858</v>
+        <v>347.2849184020068</v>
       </c>
       <c r="O15" t="n">
-        <v>18.75156806644676</v>
+        <v>18.63558205160243</v>
       </c>
       <c r="P15" t="n">
-        <v>352.3855095312667</v>
+        <v>352.2204537589805</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -12875,28 +13133,28 @@
         <v>0.0567</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.003339352231450249</v>
+        <v>0.02533825545646612</v>
       </c>
       <c r="J16" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L16" t="n">
-        <v>2.180710654275941e-06</v>
+        <v>0.0001292164335225943</v>
       </c>
       <c r="M16" t="n">
-        <v>14.05783837597077</v>
+        <v>13.98843689414906</v>
       </c>
       <c r="N16" t="n">
-        <v>317.3970931220576</v>
+        <v>313.9215738756237</v>
       </c>
       <c r="O16" t="n">
-        <v>17.81564181055674</v>
+        <v>17.71783208735267</v>
       </c>
       <c r="P16" t="n">
-        <v>347.4117200617972</v>
+        <v>347.1776969686984</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -12952,28 +13210,28 @@
         <v>0.0556</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.09461566940417122</v>
+        <v>-0.050665335958934</v>
       </c>
       <c r="J17" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001667561486961122</v>
+        <v>0.0004943339882863551</v>
       </c>
       <c r="M17" t="n">
-        <v>14.71654334500398</v>
+        <v>14.64324590727987</v>
       </c>
       <c r="N17" t="n">
-        <v>322.6751189704848</v>
+        <v>318.2919539141959</v>
       </c>
       <c r="O17" t="n">
-        <v>17.96316004968182</v>
+        <v>17.84073860338175</v>
       </c>
       <c r="P17" t="n">
-        <v>344.5120080843905</v>
+        <v>344.1411127485099</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -13029,28 +13287,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2188495131404235</v>
+        <v>-0.1843525844626466</v>
       </c>
       <c r="J18" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008604233314595922</v>
+        <v>0.006334305846176225</v>
       </c>
       <c r="M18" t="n">
-        <v>15.15517983256342</v>
+        <v>15.01474528669676</v>
       </c>
       <c r="N18" t="n">
-        <v>346.9611928735275</v>
+        <v>341.4512331643651</v>
       </c>
       <c r="O18" t="n">
-        <v>18.62689434322124</v>
+        <v>18.47839909636019</v>
       </c>
       <c r="P18" t="n">
-        <v>339.1531044385371</v>
+        <v>338.8763472622935</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -13106,28 +13364,28 @@
         <v>0.0435</v>
       </c>
       <c r="I19" t="n">
-        <v>0.16959649062723</v>
+        <v>0.1942855831897138</v>
       </c>
       <c r="J19" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003864763784698688</v>
+        <v>0.005262859163298828</v>
       </c>
       <c r="M19" t="n">
-        <v>16.05149983674114</v>
+        <v>15.82884794187001</v>
       </c>
       <c r="N19" t="n">
-        <v>440.072101159924</v>
+        <v>431.3644729516471</v>
       </c>
       <c r="O19" t="n">
-        <v>20.97789553696757</v>
+        <v>20.76931565920378</v>
       </c>
       <c r="P19" t="n">
-        <v>330.8918714091126</v>
+        <v>330.6817903624911</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -13183,28 +13441,28 @@
         <v>0.0663</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0005654307124035279</v>
+        <v>0.02545078727208396</v>
       </c>
       <c r="J20" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L20" t="n">
-        <v>4.999443647957236e-08</v>
+        <v>0.0001046713934816923</v>
       </c>
       <c r="M20" t="n">
-        <v>16.26612260981685</v>
+        <v>16.14794544611392</v>
       </c>
       <c r="N20" t="n">
-        <v>385.0327840604705</v>
+        <v>379.7212277465708</v>
       </c>
       <c r="O20" t="n">
-        <v>19.62225226778186</v>
+        <v>19.48643702031161</v>
       </c>
       <c r="P20" t="n">
-        <v>325.6629063715416</v>
+        <v>325.4478982733151</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -13260,28 +13518,28 @@
         <v>0.0525</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1339359062090716</v>
+        <v>0.1545881859337345</v>
       </c>
       <c r="J21" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002815668600234522</v>
+        <v>0.003893585671224664</v>
       </c>
       <c r="M21" t="n">
-        <v>16.0488650376318</v>
+        <v>15.85464219022442</v>
       </c>
       <c r="N21" t="n">
-        <v>386.4075529608966</v>
+        <v>379.2291403895654</v>
       </c>
       <c r="O21" t="n">
-        <v>19.65725191782658</v>
+        <v>19.47380652028682</v>
       </c>
       <c r="P21" t="n">
-        <v>318.5068473835707</v>
+        <v>318.3377299685309</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -13337,28 +13595,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.125752276622423</v>
+        <v>0.119842020272801</v>
       </c>
       <c r="J22" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002218270059592853</v>
+        <v>0.002089583862093347</v>
       </c>
       <c r="M22" t="n">
-        <v>17.13880564438927</v>
+        <v>16.96597434654249</v>
       </c>
       <c r="N22" t="n">
-        <v>433.7969331206439</v>
+        <v>425.8701847114349</v>
       </c>
       <c r="O22" t="n">
-        <v>20.82779232469548</v>
+        <v>20.63662241529449</v>
       </c>
       <c r="P22" t="n">
-        <v>310.7981908557845</v>
+        <v>310.8503884135804</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -13408,28 +13666,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.04374248691682319</v>
+        <v>-0.06479289961118516</v>
       </c>
       <c r="J23" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002749751304713666</v>
+        <v>0.0006221207615108026</v>
       </c>
       <c r="M23" t="n">
-        <v>17.74423696131141</v>
+        <v>17.63608334460282</v>
       </c>
       <c r="N23" t="n">
-        <v>444.8696101365276</v>
+        <v>439.3150325952396</v>
       </c>
       <c r="O23" t="n">
-        <v>21.09193234714467</v>
+        <v>20.9598433342246</v>
       </c>
       <c r="P23" t="n">
-        <v>307.3190703978845</v>
+        <v>307.4896494605642</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -13485,28 +13743,28 @@
         <v>0.1057</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.08199074997636639</v>
+        <v>-0.1089909857022565</v>
       </c>
       <c r="J24" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000866928356740404</v>
+        <v>0.001576984754857347</v>
       </c>
       <c r="M24" t="n">
-        <v>17.7178993810787</v>
+        <v>17.6798375800778</v>
       </c>
       <c r="N24" t="n">
-        <v>460.8016315548874</v>
+        <v>456.1178985560171</v>
       </c>
       <c r="O24" t="n">
-        <v>21.46629058675223</v>
+        <v>21.35691687852011</v>
       </c>
       <c r="P24" t="n">
-        <v>302.6655418729267</v>
+        <v>302.8991809376849</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -13562,28 +13820,28 @@
         <v>0.0616</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.272778192052862</v>
+        <v>-0.2408411816109652</v>
       </c>
       <c r="J25" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01057170953647724</v>
+        <v>0.008496874813238242</v>
       </c>
       <c r="M25" t="n">
-        <v>16.49257887852585</v>
+        <v>16.43292802816214</v>
       </c>
       <c r="N25" t="n">
-        <v>419.9328965596242</v>
+        <v>415.9204254882008</v>
       </c>
       <c r="O25" t="n">
-        <v>20.49226431021287</v>
+        <v>20.39412723036219</v>
       </c>
       <c r="P25" t="n">
-        <v>300.1244293146019</v>
+        <v>299.8579473744542</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -13639,28 +13897,28 @@
         <v>0.074</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1898010286379216</v>
+        <v>0.2600102202170035</v>
       </c>
       <c r="J26" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004653700616378598</v>
+        <v>0.009028370277117226</v>
       </c>
       <c r="M26" t="n">
-        <v>16.37975553044344</v>
+        <v>16.28375769230357</v>
       </c>
       <c r="N26" t="n">
-        <v>460.570458076936</v>
+        <v>454.9311710955456</v>
       </c>
       <c r="O26" t="n">
-        <v>21.46090534150263</v>
+        <v>21.32911557227692</v>
       </c>
       <c r="P26" t="n">
-        <v>286.2063785363238</v>
+        <v>285.6237059126761</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -13716,28 +13974,28 @@
         <v>0.0466</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1125487710054408</v>
+        <v>0.2117159849017133</v>
       </c>
       <c r="J27" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001510913982097906</v>
+        <v>0.005515320561325643</v>
       </c>
       <c r="M27" t="n">
-        <v>18.11060818838897</v>
+        <v>18.16126730942014</v>
       </c>
       <c r="N27" t="n">
-        <v>495.6011843543763</v>
+        <v>494.1679528669306</v>
       </c>
       <c r="O27" t="n">
-        <v>22.26210197520388</v>
+        <v>22.2298887281725</v>
       </c>
       <c r="P27" t="n">
-        <v>285.9123693652967</v>
+        <v>285.1243897023863</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -13793,28 +14051,28 @@
         <v>0.0639</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6494505005663164</v>
+        <v>-0.6083810691962681</v>
       </c>
       <c r="J28" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05921017029580466</v>
+        <v>0.05351761455594006</v>
       </c>
       <c r="M28" t="n">
-        <v>16.70474285302394</v>
+        <v>16.62654664839778</v>
       </c>
       <c r="N28" t="n">
-        <v>397.3250102535206</v>
+        <v>395.5459571290414</v>
       </c>
       <c r="O28" t="n">
-        <v>19.93301307513545</v>
+        <v>19.88833721378037</v>
       </c>
       <c r="P28" t="n">
-        <v>292.8691652059868</v>
+        <v>292.5192991784924</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -13870,28 +14128,28 @@
         <v>0.0755</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2709788915328353</v>
+        <v>-0.2686987664212985</v>
       </c>
       <c r="J29" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01170496442853275</v>
+        <v>0.01201365733398174</v>
       </c>
       <c r="M29" t="n">
-        <v>16.30960412687667</v>
+        <v>16.04210467585732</v>
       </c>
       <c r="N29" t="n">
-        <v>384.3049121073925</v>
+        <v>375.7693087775129</v>
       </c>
       <c r="O29" t="n">
-        <v>19.60369638888015</v>
+        <v>19.38477002126961</v>
       </c>
       <c r="P29" t="n">
-        <v>287.2862879139296</v>
+        <v>287.2691389287579</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -13947,28 +14205,28 @@
         <v>0.0569</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.05932623590467773</v>
+        <v>-0.03316808975093829</v>
       </c>
       <c r="J30" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0007199426488353478</v>
+        <v>0.0002327832147279718</v>
       </c>
       <c r="M30" t="n">
-        <v>14.46763600453589</v>
+        <v>14.30136490946847</v>
       </c>
       <c r="N30" t="n">
-        <v>299.4042089030578</v>
+        <v>294.663860032871</v>
       </c>
       <c r="O30" t="n">
-        <v>17.30330052050931</v>
+        <v>17.1657758354486</v>
       </c>
       <c r="P30" t="n">
-        <v>284.5799550467422</v>
+        <v>284.3632252909771</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -14024,28 +14282,28 @@
         <v>0.0567</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1027807211409205</v>
+        <v>-0.0705401211308212</v>
       </c>
       <c r="J31" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001859423510526703</v>
+        <v>0.0009081341560017719</v>
       </c>
       <c r="M31" t="n">
-        <v>15.5177082234865</v>
+        <v>15.35319524215345</v>
       </c>
       <c r="N31" t="n">
-        <v>349.7835465164355</v>
+        <v>343.7005616483983</v>
       </c>
       <c r="O31" t="n">
-        <v>18.70250107649871</v>
+        <v>18.53916291660436</v>
       </c>
       <c r="P31" t="n">
-        <v>283.5554391815067</v>
+        <v>283.2890693484775</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -14101,28 +14359,28 @@
         <v>0.0583</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1985011563914354</v>
+        <v>-0.1608547062597677</v>
       </c>
       <c r="J32" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L32" t="n">
-        <v>0.006544689667265069</v>
+        <v>0.004446026482542331</v>
       </c>
       <c r="M32" t="n">
-        <v>15.93643866548738</v>
+        <v>15.82840835009687</v>
       </c>
       <c r="N32" t="n">
-        <v>370.9779737593346</v>
+        <v>365.1263368281553</v>
       </c>
       <c r="O32" t="n">
-        <v>19.2607885030529</v>
+        <v>19.10827927439191</v>
       </c>
       <c r="P32" t="n">
-        <v>287.8584996532927</v>
+        <v>287.5447179431324</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -14178,28 +14436,28 @@
         <v>0.0514</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4807416157427591</v>
+        <v>-0.4468147776572577</v>
       </c>
       <c r="J33" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03553498779271524</v>
+        <v>0.03189839534340599</v>
       </c>
       <c r="M33" t="n">
-        <v>15.77885744579368</v>
+        <v>15.6412143407022</v>
       </c>
       <c r="N33" t="n">
-        <v>368.1776668498823</v>
+        <v>361.4354472909205</v>
       </c>
       <c r="O33" t="n">
-        <v>19.18795629685148</v>
+        <v>19.0114556857417</v>
       </c>
       <c r="P33" t="n">
-        <v>304.5394076715988</v>
+        <v>304.2413325112348</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -14255,28 +14513,28 @@
         <v>0.0519</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3459052921567693</v>
+        <v>-0.3020556794291001</v>
       </c>
       <c r="J34" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01985161400358182</v>
+        <v>0.01562043866298801</v>
       </c>
       <c r="M34" t="n">
-        <v>15.43491374425963</v>
+        <v>15.36155564353984</v>
       </c>
       <c r="N34" t="n">
-        <v>353.5127065552552</v>
+        <v>350.0221191845899</v>
       </c>
       <c r="O34" t="n">
-        <v>18.80193358554527</v>
+        <v>18.70887808460438</v>
       </c>
       <c r="P34" t="n">
-        <v>314.2393706595686</v>
+        <v>313.8655184214423</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -14332,28 +14590,28 @@
         <v>0.0568</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3177083916431114</v>
+        <v>-0.2859127172124459</v>
       </c>
       <c r="J35" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01594367505515182</v>
+        <v>0.01341429290058449</v>
       </c>
       <c r="M35" t="n">
-        <v>15.93306141838177</v>
+        <v>15.77546818746576</v>
       </c>
       <c r="N35" t="n">
-        <v>374.5637472528383</v>
+        <v>367.596925921221</v>
       </c>
       <c r="O35" t="n">
-        <v>19.35364945566697</v>
+        <v>19.17281737046543</v>
       </c>
       <c r="P35" t="n">
-        <v>321.0488788573721</v>
+        <v>320.7771533462828</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -14409,28 +14667,28 @@
         <v>0.0578</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.3824471916757161</v>
+        <v>-0.3241675769479133</v>
       </c>
       <c r="J36" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02874041517782722</v>
+        <v>0.0212969595090462</v>
       </c>
       <c r="M36" t="n">
-        <v>14.75209380289524</v>
+        <v>14.79662551272495</v>
       </c>
       <c r="N36" t="n">
-        <v>302.2296853970676</v>
+        <v>300.0396884905246</v>
       </c>
       <c r="O36" t="n">
-        <v>17.38475439564987</v>
+        <v>17.32165374583283</v>
       </c>
       <c r="P36" t="n">
-        <v>336.8735770397674</v>
+        <v>336.3775350979083</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -14486,28 +14744,28 @@
         <v>0.0645</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.3136018834125698</v>
+        <v>-0.2563173801619863</v>
       </c>
       <c r="J37" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02045061854632257</v>
+        <v>0.01405061070646008</v>
       </c>
       <c r="M37" t="n">
-        <v>13.65990975602698</v>
+        <v>13.70229983735904</v>
       </c>
       <c r="N37" t="n">
-        <v>290.4963262664487</v>
+        <v>289.0233267345191</v>
       </c>
       <c r="O37" t="n">
-        <v>17.04395277705406</v>
+        <v>17.00068606658329</v>
       </c>
       <c r="P37" t="n">
-        <v>331.0916033256066</v>
+        <v>330.6108224575046</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -14544,7 +14802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL99"/>
+  <dimension ref="A1:AL101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29838,7 +30096,11 @@
           <t>2024-11-25 22:17:51+00:00</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>-34.48249505827055,173.00310045215514</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>-34.48312570769657,173.00262447019722</t>
@@ -29889,11 +30151,7 @@
           <t>-34.48958798835188,173.00171464283144</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>-34.490324324910205,173.00181417899037</t>
-        </is>
-      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
           <t>-34.491058298951216,173.0019330309295</t>
@@ -30015,6 +30273,386 @@
         </is>
       </c>
       <c r="AL99" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>-34.48243188420969,173.00295271200844</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>-34.483054754234196,173.00245853709333</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>-34.48373041691034,173.00208783595946</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-34.484353261249524,173.0015936250281</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-34.485181248904,173.00155026996828</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-34.48593186571842,173.0014787265973</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-34.486666243995934,173.0014473720997</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-34.48740750420553,173.0014582801532</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-34.48814441372121,173.0014956260605</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>-34.48886064050153,173.00163881779105</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>-34.48958793370362,173.00171509085357</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>-34.49106657520518,173.0018651790417</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>-34.491807933466696,173.00192343872263</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>-34.49254271401621,173.00203557234013</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>-34.49328687691601,173.00207073129806</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>-34.4940325325748,173.0020935976489</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>-34.49477067601002,173.0021895144219</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>-34.495505109397214,173.00232298536082</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>-34.49624965697731,173.0023760097157</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>-34.496996421502075,173.00240718484795</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>-34.49773855776727,173.00247104469963</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>-34.49847716512426,173.0025685129847</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>-34.49920398630202,173.00279652583924</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>-34.499940182977056,173.0029544837797</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>-34.500657600926466,173.003180338954</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>-34.50140933381318,173.0032068997626</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>-34.50216320932183,173.00322097996064</t>
+        </is>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>-34.502868959441344,173.00351447866586</t>
+        </is>
+      </c>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>-34.50359385911333,173.00365914500378</t>
+        </is>
+      </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>-34.504271383188524,173.00386720077188</t>
+        </is>
+      </c>
+      <c r="AG100" t="inlineStr">
+        <is>
+          <t>-34.50497057810135,173.00399619162656</t>
+        </is>
+      </c>
+      <c r="AH100" t="inlineStr">
+        <is>
+          <t>-34.505696085483095,173.00429020753026</t>
+        </is>
+      </c>
+      <c r="AI100" t="inlineStr">
+        <is>
+          <t>-34.50643546277942,173.0043366722538</t>
+        </is>
+      </c>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>-34.507189172950675,173.00461512626794</t>
+        </is>
+      </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>-34.50790837775114,173.00493229786818</t>
+        </is>
+      </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>-34.48236428257087,173.0027946181487</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-34.48305310832084,173.00245468793892</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>-34.483606995538686,173.00179920156384</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-34.484312971621634,173.00149940313878</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-34.48512424022453,173.00138835101228</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-34.48589063296331,173.00120412232465</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-34.486658309565556,173.00118337388392</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-34.48740100667554,173.00124208651647</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-34.48814468972421,173.00133660277206</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>-34.48886369673136,173.0015994789469</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-34.4896025095119,173.0015955936936</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-34.490370746444164,173.00143359485452</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>-34.49110680235834,173.00153537690045</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>-34.49183921865544,173.0016669458117</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-34.492571021686274,173.00180348992689</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>-34.493295236070765,173.0020021979077</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>-34.49404174005392,173.00201810836498</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>-34.49477550332244,173.00215182452993</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>-34.49553375219762,173.00211512857717</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>-34.49626756873332,173.00224933807579</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>-34.49702535198498,173.0022025863507</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>-34.497778406454266,173.00218922884517</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>-34.49852270057824,173.0022510737366</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>-34.49925118348255,173.00249934340337</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>-34.49996608891146,173.00280405513803</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>-34.50068627029971,173.00301386360212</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>-34.50146566210519,173.00287981155267</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>-34.50218185690797,173.00311269615335</t>
+        </is>
+      </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>-34.50289252322475,173.0033776475054</t>
+        </is>
+      </c>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>-34.50360617804507,173.00358391348055</t>
+        </is>
+      </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>-34.50428230481712,173.0037634594494</t>
+        </is>
+      </c>
+      <c r="AG101" t="inlineStr">
+        <is>
+          <t>-34.504974390500834,173.0039281782052</t>
+        </is>
+      </c>
+      <c r="AH101" t="inlineStr">
+        <is>
+          <t>-34.505706752000826,173.0040999204816</t>
+        </is>
+      </c>
+      <c r="AI101" t="inlineStr">
+        <is>
+          <t>-34.5064393254377,173.0042677639983</t>
+        </is>
+      </c>
+      <c r="AJ101" t="inlineStr">
+        <is>
+          <t>-34.50719657497346,173.00457437239447</t>
+        </is>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>-34.5079394825874,173.00483393590414</t>
+        </is>
+      </c>
+      <c r="AL101" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0007/nzd0007.xlsx
+++ b/data/nzd0007/nzd0007.xlsx
@@ -11918,7 +11918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12009,35 +12009,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12096,27 +12101,28 @@
       <c r="P2" t="n">
         <v>308.138299385893</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.99983567370103 -34.48109896674427, 173.00883139414168 -34.48494541172582)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.999835673701</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.48109896674427</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.0088313941417</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.48494541172582</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.0043335339213</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.48302218923504</v>
       </c>
     </row>
@@ -12173,27 +12179,28 @@
       <c r="P3" t="n">
         <v>297.2917470472474</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.99942295596844 -34.48175667008694, 173.0084187097264 -34.485603123669264)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.9994229559684</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.48175667008694</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0084187097264</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.48560312366926</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0039208328474</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.4836798968781</v>
       </c>
     </row>
@@ -12250,27 +12257,28 @@
       <c r="P4" t="n">
         <v>296.8125804992174</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.99901023823574 -34.482414368243944, 173.0080060253114 -34.48626083042732)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.9990102382357</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.48241436824394</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.0080060253114</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.48626083042732</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.0035081317736</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.48433759933563</v>
       </c>
     </row>
@@ -12327,27 +12335,28 @@
       <c r="P5" t="n">
         <v>307.6893734105105</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.998597520503 -34.48307206121519, 173.00759334089648 -34.48691853200007)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.998597520503</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.48307206121519</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.0075933408965</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.48691853200007</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.0030954306997</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.48499529660763</v>
       </c>
     </row>
@@ -12404,27 +12413,28 @@
       <c r="P6" t="n">
         <v>327.7915528183903</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.9980583325833 -34.48395173722725, 173.0073764054097 -34.487232329087284)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.9980583325833</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.48395173722725</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.0073764054097</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.48723232908728</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.0027173689965</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.48559203315727</v>
       </c>
     </row>
@@ -12481,27 +12491,28 @@
       <c r="P7" t="n">
         <v>347.2379748691117</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.9975228437295 -34.48533781307364, 173.00748773020405 -34.4868339731063)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.9975228437295</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.48533781307364</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.007487730204</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.4868339731063</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.0025052869668</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.48608589308997</v>
       </c>
     </row>
@@ -12552,27 +12563,28 @@
       <c r="P8" t="n">
         <v>345.4263604393465</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.99742880192852 -34.48654540452174, 173.0075500610224 -34.486849500089704)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.9974288019285</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.48654540452174</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.0075500610224</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.4868495000897</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.0024894314755</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.48669745230572</v>
       </c>
     </row>
@@ -12629,27 +12641,28 @@
       <c r="P9" t="n">
         <v>351.0460760635587</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.99739613829612 -34.487285355631975, 173.0075174549852 -34.48758945196191)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.9973961382961</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.48728535563198</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.0075174549852</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.48758945196191</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.0024567966407</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.48743740379695</v>
       </c>
     </row>
@@ -12700,27 +12713,28 @@
       <c r="P10" t="n">
         <v>354.7179592871914</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.9973608542601 -34.488151522827366, 173.00748888433998 -34.488133860875834)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.9973608542601</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.48815152282737</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.00748888434</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.48813386087583</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.0024248693001</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.4881426918516</v>
       </c>
     </row>
@@ -12777,27 +12791,28 @@
       <c r="P11" t="n">
         <v>359.5319208728065</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.99741464089303 -34.489188742660794, 173.007498301184 -34.488405274049384)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.997414640893</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.48918874266079</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.007498301184</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.48840527404938</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.0024564710385</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.48879700835509</v>
       </c>
     </row>
@@ -12848,27 +12863,28 @@
       <c r="P12" t="n">
         <v>360.6021880730624</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.99757087262455 -34.490093358426485, 173.00759052544504 -34.48887112016296)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.9975708726246</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.49009335842648</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.007590525445</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.48887112016296</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.0025806990348</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.48948223929472</v>
       </c>
     </row>
@@ -12925,27 +12941,28 @@
       <c r="P13" t="n">
         <v>358.4543640235655</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.99770197307825 -34.490825843362025, 173.00772168118374 -34.48960360205004)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.9977019730783</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.49082584336202</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.0077216811837</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.48960360205004</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.002711827131</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.49021472270603</v>
       </c>
     </row>
@@ -13002,27 +13019,28 @@
       <c r="P14" t="n">
         <v>355.1521044534091</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.99783307353144 -34.49155832186424, 173.00785283692343 -34.49033607750329)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.9978330735314</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.49155832186424</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.0078528369234</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.49033607750329</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.0028429552274</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.49094719968376</v>
       </c>
     </row>
@@ -13079,27 +13097,28 @@
       <c r="P15" t="n">
         <v>352.2204537589805</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.9979641739842 -34.49229079393287, 173.0079839926641 -34.49106854652289)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.9979641739842</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.49229079393287</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.0079839926641</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.49106854652289</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.0029740833241</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.49167967022788</v>
       </c>
     </row>
@@ -13156,27 +13175,28 @@
       <c r="P16" t="n">
         <v>347.1776969686984</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (172.9980952744364 -34.49302325956794, 173.0081151484057 -34.491801009108734)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>172.9980952744364</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.49302325956794</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.0081151484057</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.49180100910873</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.003105211421</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.49241213433834</v>
       </c>
     </row>
@@ -13233,27 +13253,28 @@
       <c r="P17" t="n">
         <v>344.1411127485099</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (172.99822637488822 -34.49375571876937, 173.0082463041483 -34.492533465260706)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>172.9982263748882</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.49375571876937</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.0082463041483</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.49253346526071</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.0032363395183</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.49314459201504</v>
       </c>
     </row>
@@ -13310,27 +13331,28 @@
       <c r="P18" t="n">
         <v>338.8763472622935</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (172.99835747533947 -34.49448817153711, 173.00837745989185 -34.493265914978764)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>172.9983574753395</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.49448817153711</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.0083774598918</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.49326591497876</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.0033674676156</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.49387704325794</v>
       </c>
     </row>
@@ -13387,27 +13409,28 @@
       <c r="P19" t="n">
         <v>330.6817903624911</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (172.9984928703669 -34.495244083291524, 173.00850196366946 -34.4939620070809)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>172.9984928703669</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.49524408329152</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.0085019636695</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.4939620070809</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.0034974170182</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.49460304518621</v>
       </c>
     </row>
@@ -13464,27 +13487,28 @@
       <c r="P20" t="n">
         <v>325.4478982733151</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (172.9986440262617 -34.49601201719295, 173.00863473383652 -34.49463516856459)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>172.9986440262617</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.49601201719295</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.0086347338365</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.49463516856459</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.0036393800491</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.49532359287878</v>
       </c>
     </row>
@@ -13541,27 +13565,28 @@
       <c r="P21" t="n">
         <v>318.3377299685309</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (172.9987982725917 -34.49675550642205, 173.0087818849354 -34.49534366540236)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>172.9987982725917</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.49675550642205</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.0087818849354</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.49534366540236</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.0037900787635</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.4960495859122</v>
       </c>
     </row>
@@ -13618,27 +13643,28 @@
       <c r="P22" t="n">
         <v>310.8503884135804</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (172.99894971382543 -34.49748526349615, 173.00893338064196 -34.49607341896647)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>172.9989497138254</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.49748526349615</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.008933380642</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.49607341896647</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.0039415472337</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.49677934123131</v>
       </c>
     </row>
@@ -13689,27 +13715,28 @@
       <c r="P23" t="n">
         <v>307.4896494605642</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (172.99910115505878 -34.498215014183224, 173.00908487634945 -34.49680316614299)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>172.9991011550588</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.49821501418322</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>173.0090848763494</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.49680316614299</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>173.0040930157041</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.49750909016311</v>
       </c>
     </row>
@@ -13766,27 +13793,28 @@
       <c r="P24" t="n">
         <v>302.8991809376849</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (172.9992542198605 -34.49895254477891, 173.0092338574311 -34.497520844820734)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>172.9992542198605</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-34.49895254477891</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>173.0092338574311</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-34.49752084482073</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>173.0042440386458</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-34.49823669479982</v>
       </c>
     </row>
@@ -13843,27 +13871,28 @@
       <c r="P25" t="n">
         <v>299.8579473744542</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (172.99942276876195 -34.49973974563604, 173.00936968163327 -34.4981598687116)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>172.9994227687619</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-34.49973974563604</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>173.0093696816333</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-34.4981598687116</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>173.0043962251976</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-34.49894980717382</v>
       </c>
     </row>
@@ -13920,27 +13949,28 @@
       <c r="P26" t="n">
         <v>285.6237059126761</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (172.99961812799668 -34.50051470322716, 173.00953409726236 -34.498806883714856)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>172.9996181279967</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-34.50051470322716</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>173.0095340972624</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-34.49880688371486</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>173.0045761126295</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-34.49966079347101</v>
       </c>
     </row>
@@ -13997,27 +14027,28 @@
       <c r="P27" t="n">
         <v>285.1243897023863</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (172.99980132556735 -34.50123946578198, 173.00971734778668 -34.49953164205223)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>172.9998013255673</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-34.50123946578198</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>173.0097173477867</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-34.49953164205223</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>173.004759336677</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-34.50038555391711</v>
       </c>
     </row>
@@ -14074,27 +14105,28 @@
       <c r="P28" t="n">
         <v>292.5192991784924</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (172.99998452313764 -34.501964222035994, 173.0099005983119 -34.50025639408833)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>172.9999845231376</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-34.50196422203599</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>173.0099005983119</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-34.50025639408833</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>173.0049425607248</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-34.50111030806217</v>
       </c>
     </row>
@@ -14151,27 +14183,28 @@
       <c r="P29" t="n">
         <v>287.2691389287579</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (173.00016772070748 -34.50268897198893, 173.01008384883804 -34.50098113982337)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>173.0001677207075</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-34.50268897198893</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>173.010083848838</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-34.50098113982337</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>173.0051257847728</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-34.50183505590615</v>
       </c>
     </row>
@@ -14228,27 +14261,28 @@
       <c r="P30" t="n">
         <v>284.3632252909771</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (173.00035091827687 -34.503413715640924, 173.010267099365 -34.501705879257)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>173.0003509182769</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-34.50341371564092</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>173.010267099365</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-34.501705879257</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>173.0053090088209</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-34.50255979744897</v>
       </c>
     </row>
@@ -14305,27 +14339,28 @@
       <c r="P31" t="n">
         <v>283.2890693484775</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (173.00052633176213 -34.504106805409, 173.01046240530184 -34.50247963946291)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>173.0005263317621</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-34.504106805409</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>173.0104624053018</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-34.50247963946291</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>173.005494368532</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-34.50329322243596</v>
       </c>
     </row>
@@ -14382,27 +14417,28 @@
       <c r="P32" t="n">
         <v>287.5447179431324</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (173.00064807331228 -34.50461024254879, 173.01069615730287 -34.50355224756292)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>173.0006480733123</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-34.50461024254879</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>173.0106961573029</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-34.50355224756292</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>173.0056721153076</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-34.50408124505586</v>
       </c>
     </row>
@@ -14459,27 +14495,28 @@
       <c r="P33" t="n">
         <v>304.2413325112348</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (173.00068607314606 -34.50515607794981, 173.0107922016644 -34.50458944437113)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>173.0006860731461</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-34.50515607794981</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>173.0107922016644</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-34.50458944437113</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>173.0057391374052</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-34.50487276116047</v>
       </c>
     </row>
@@ -14536,27 +14573,28 @@
       <c r="P34" t="n">
         <v>313.8655184214423</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>LINESTRING (173.00074681730607 -34.50589466072528, 173.01085300307957 -34.5053280257159)</t>
         </is>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>173.0007468173061</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>-34.50589466072528</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>173.0108530030796</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>-34.5053280257159</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>173.0057999101928</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>-34.50561134322059</v>
       </c>
     </row>
@@ -14613,27 +14651,28 @@
       <c r="P35" t="n">
         <v>320.7771533462828</v>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
         <is>
           <t>LINESTRING (173.0008075614656 -34.50663323695609, 173.01091380449583 -34.50606660051558)</t>
         </is>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>173.0008075614656</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>-34.50663323695609</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>173.0109138044958</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>-34.50606660051558</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>173.0058606829807</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>-34.50634991873584</v>
       </c>
     </row>
@@ -14690,27 +14729,28 @@
       <c r="P36" t="n">
         <v>336.3775350979083</v>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
         <is>
           <t>LINESTRING (173.00095182436752 -34.50785446962152, 173.01084523088343 -34.506057439447346)</t>
         </is>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>173.0009518243675</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>-34.50785446962152</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>173.0108452308834</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>-34.50605743944735</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>173.0058985276255</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>-34.50695595453443</v>
       </c>
     </row>
@@ -14767,27 +14807,28 @@
       <c r="P37" t="n">
         <v>330.6108224575046</v>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
         <is>
           <t>LINESTRING (173.0014415320967 -34.50901219395821, 173.0109021683872 -34.50602034394889)</t>
         </is>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>173.0014415320967</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>-34.50901219395821</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>173.0109021683872</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>-34.50602034394889</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>173.0061718502419</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>-34.50751626895355</v>
       </c>
     </row>

--- a/data/nzd0007/nzd0007.xlsx
+++ b/data/nzd0007/nzd0007.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL101"/>
+  <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10856,6 +10856,114 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>368.3185714285714</v>
+      </c>
+      <c r="I102" t="n">
+        <v>369.7266666666667</v>
+      </c>
+      <c r="J102" t="n">
+        <v>386.7347619047619</v>
+      </c>
+      <c r="K102" t="n">
+        <v>395.2422222222222</v>
+      </c>
+      <c r="L102" t="n">
+        <v>384.4321052631579</v>
+      </c>
+      <c r="M102" t="n">
+        <v>383.15</v>
+      </c>
+      <c r="N102" t="n">
+        <v>371.6761538461539</v>
+      </c>
+      <c r="O102" t="n">
+        <v>367.1466666666667</v>
+      </c>
+      <c r="P102" t="n">
+        <v>359.0022222222222</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>361.7936363636364</v>
+      </c>
+      <c r="S102" t="n">
+        <v>347.4071428571428</v>
+      </c>
+      <c r="T102" t="n">
+        <v>342.7936363636364</v>
+      </c>
+      <c r="U102" t="n">
+        <v>340.7022222222222</v>
+      </c>
+      <c r="V102" t="n">
+        <v>334.8736363636364</v>
+      </c>
+      <c r="W102" t="n">
+        <v>316.2261538461539</v>
+      </c>
+      <c r="X102" t="n">
+        <v>312.0833333333333</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>327.9936363636364</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>306.16</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>299.55</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>303.7166666666667</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>312.07</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>309.08</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>306.77</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>303.5822222222222</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>319.6522222222222</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>331.76</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>350.7</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>346.7636363636364</v>
+      </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10867,7 +10975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11905,6 +12013,16 @@
       </c>
       <c r="B103" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -12081,7 +12199,7 @@
         <v>-0.09907934318796813</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2" t="n">
         <v>46</v>
@@ -12159,7 +12277,7 @@
         <v>0.1631178991918502</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K3" t="n">
         <v>48</v>
@@ -12237,7 +12355,7 @@
         <v>0.01715234143712766</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K4" t="n">
         <v>49</v>
@@ -12315,7 +12433,7 @@
         <v>-0.1797736164180997</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" t="n">
         <v>51</v>
@@ -12393,7 +12511,7 @@
         <v>-0.005441840721179914</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="n">
         <v>54</v>
@@ -12471,7 +12589,7 @@
         <v>-0.1434738551305911</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7" t="n">
         <v>50</v>
@@ -12540,28 +12658,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.08669766494330503</v>
+        <v>-0.009634716469822795</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001003997013983016</v>
+        <v>1.241977505506142e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>16.82520857153586</v>
+        <v>16.89431416626178</v>
       </c>
       <c r="N8" t="n">
-        <v>431.8788710806451</v>
+        <v>435.1958111934836</v>
       </c>
       <c r="O8" t="n">
-        <v>20.78169557761457</v>
+        <v>20.86134730053367</v>
       </c>
       <c r="P8" t="n">
-        <v>345.4263604393465</v>
+        <v>344.6984214816367</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -12618,28 +12736,28 @@
         <v>0.0825</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2195798530904711</v>
+        <v>-0.16003162467486</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005953408568671215</v>
+        <v>0.003194685858452173</v>
       </c>
       <c r="M9" t="n">
-        <v>18.44491020749007</v>
+        <v>18.46350009464107</v>
       </c>
       <c r="N9" t="n">
-        <v>524.1463319576004</v>
+        <v>524.7243460047894</v>
       </c>
       <c r="O9" t="n">
-        <v>22.89424233202751</v>
+        <v>22.90686242165848</v>
       </c>
       <c r="P9" t="n">
-        <v>351.0460760635587</v>
+        <v>350.5471773220688</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -12690,28 +12808,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.3098713440855972</v>
+        <v>0.3779299207726743</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01247756428883773</v>
+        <v>0.01861128306264093</v>
       </c>
       <c r="M10" t="n">
-        <v>17.84244308520288</v>
+        <v>17.83192237934097</v>
       </c>
       <c r="N10" t="n">
-        <v>499.1938803035266</v>
+        <v>500.3508228122232</v>
       </c>
       <c r="O10" t="n">
-        <v>22.34264711943342</v>
+        <v>22.36852303600359</v>
       </c>
       <c r="P10" t="n">
-        <v>354.7179592871914</v>
+        <v>354.1613634243619</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -12768,28 +12886,28 @@
         <v>0.0541</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3170324109874441</v>
+        <v>0.3817969353903879</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01022568178864813</v>
+        <v>0.01485045933687812</v>
       </c>
       <c r="M11" t="n">
-        <v>20.99503383318904</v>
+        <v>21.016813735438</v>
       </c>
       <c r="N11" t="n">
-        <v>630.3487152158364</v>
+        <v>632.0686107935255</v>
       </c>
       <c r="O11" t="n">
-        <v>25.10674640840259</v>
+        <v>25.14097473833355</v>
       </c>
       <c r="P11" t="n">
-        <v>359.5319208728065</v>
+        <v>358.9910402583693</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -12840,28 +12958,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.1462438682472248</v>
+        <v>0.1919412395539524</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002656866035499195</v>
+        <v>0.004618150529462239</v>
       </c>
       <c r="M12" t="n">
-        <v>17.91429481655223</v>
+        <v>17.90138781276658</v>
       </c>
       <c r="N12" t="n">
-        <v>502.8407433436611</v>
+        <v>501.2194987860215</v>
       </c>
       <c r="O12" t="n">
-        <v>22.42411075926225</v>
+        <v>22.38793198993649</v>
       </c>
       <c r="P12" t="n">
-        <v>360.6021880730624</v>
+        <v>360.205031319666</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -12918,28 +13036,28 @@
         <v>0.0614</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1315279258883187</v>
+        <v>-0.07037117168052585</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001945483410322302</v>
+        <v>0.0005607624203629591</v>
       </c>
       <c r="M13" t="n">
-        <v>18.51347958863737</v>
+        <v>18.6726330326474</v>
       </c>
       <c r="N13" t="n">
-        <v>554.155246647093</v>
+        <v>556.7868663392761</v>
       </c>
       <c r="O13" t="n">
-        <v>23.54050225987315</v>
+        <v>23.59633162886291</v>
       </c>
       <c r="P13" t="n">
-        <v>358.4543640235655</v>
+        <v>357.9404715899081</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -12996,28 +13114,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1519159503659349</v>
+        <v>-0.112933027107156</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003128044530178675</v>
+        <v>0.001748987069114416</v>
       </c>
       <c r="M14" t="n">
-        <v>17.24246054589388</v>
+        <v>17.30326726786337</v>
       </c>
       <c r="N14" t="n">
-        <v>465.930783031129</v>
+        <v>465.146660140745</v>
       </c>
       <c r="O14" t="n">
-        <v>21.58542987830284</v>
+        <v>21.56725898534037</v>
       </c>
       <c r="P14" t="n">
-        <v>355.1521044534091</v>
+        <v>354.8266561240033</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -13074,28 +13192,28 @@
         <v>0.0755</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07374908557192009</v>
+        <v>-0.04191761395194959</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001000396004983806</v>
+        <v>0.0003269527410298956</v>
       </c>
       <c r="M15" t="n">
-        <v>15.08428410696742</v>
+        <v>15.10138618542953</v>
       </c>
       <c r="N15" t="n">
-        <v>347.2849184020068</v>
+        <v>346.4007806203766</v>
       </c>
       <c r="O15" t="n">
-        <v>18.63558205160243</v>
+        <v>18.61184516968634</v>
       </c>
       <c r="P15" t="n">
-        <v>352.2204537589805</v>
+        <v>351.9562307737352</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -13152,28 +13270,28 @@
         <v>0.0567</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02533825545646612</v>
+        <v>0.04660036020700161</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001292164335225943</v>
+        <v>0.0004438260343126998</v>
       </c>
       <c r="M16" t="n">
-        <v>13.98843689414906</v>
+        <v>13.95915806862649</v>
       </c>
       <c r="N16" t="n">
-        <v>313.9215738756237</v>
+        <v>311.6824873865474</v>
       </c>
       <c r="O16" t="n">
-        <v>17.71783208735267</v>
+        <v>17.65453163883277</v>
       </c>
       <c r="P16" t="n">
-        <v>347.1776969686984</v>
+        <v>346.99970572302</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -13230,28 +13348,28 @@
         <v>0.0556</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.050665335958934</v>
+        <v>-0.0121167677866766</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004943339882863551</v>
+        <v>2.84567855537432e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>14.64324590727987</v>
+        <v>14.71037559442886</v>
       </c>
       <c r="N17" t="n">
-        <v>318.2919539141959</v>
+        <v>319.1765624570808</v>
       </c>
       <c r="O17" t="n">
-        <v>17.84073860338175</v>
+        <v>17.86551321560847</v>
       </c>
       <c r="P17" t="n">
-        <v>344.1411127485099</v>
+        <v>343.8109909440745</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -13308,28 +13426,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1843525844626466</v>
+        <v>-0.1346910446881041</v>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006334305846176225</v>
+        <v>0.003379258696835863</v>
       </c>
       <c r="M18" t="n">
-        <v>15.01474528669676</v>
+        <v>15.12366093445744</v>
       </c>
       <c r="N18" t="n">
-        <v>341.4512331643651</v>
+        <v>345.7161241827234</v>
       </c>
       <c r="O18" t="n">
-        <v>18.47839909636019</v>
+        <v>18.59344304271598</v>
       </c>
       <c r="P18" t="n">
-        <v>338.8763472622935</v>
+        <v>338.4715690603805</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -13386,28 +13504,28 @@
         <v>0.0435</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1942855831897138</v>
+        <v>0.2163527634763317</v>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005262859163298828</v>
+        <v>0.006624189637731037</v>
       </c>
       <c r="M19" t="n">
-        <v>15.82884794187001</v>
+        <v>15.77003596250159</v>
       </c>
       <c r="N19" t="n">
-        <v>431.3644729516471</v>
+        <v>428.1651999574912</v>
       </c>
       <c r="O19" t="n">
-        <v>20.76931565920378</v>
+        <v>20.69215310105479</v>
       </c>
       <c r="P19" t="n">
-        <v>330.6817903624911</v>
+        <v>330.4913346329498</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -13464,28 +13582,28 @@
         <v>0.0663</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02545078727208396</v>
+        <v>0.05622795995442068</v>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001046713934816923</v>
+        <v>0.0005169620942311326</v>
       </c>
       <c r="M20" t="n">
-        <v>16.14794544611392</v>
+        <v>16.19154677815284</v>
       </c>
       <c r="N20" t="n">
-        <v>379.7212277465708</v>
+        <v>378.5503513428047</v>
       </c>
       <c r="O20" t="n">
-        <v>19.48643702031161</v>
+        <v>19.45637045655753</v>
       </c>
       <c r="P20" t="n">
-        <v>325.4478982733151</v>
+        <v>325.1875869923267</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -13542,28 +13660,28 @@
         <v>0.0525</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1545881859337345</v>
+        <v>0.1892838666979458</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K21" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003893585671224664</v>
+        <v>0.005888760248047187</v>
       </c>
       <c r="M21" t="n">
-        <v>15.85464219022442</v>
+        <v>15.93666541302429</v>
       </c>
       <c r="N21" t="n">
-        <v>379.2291403895654</v>
+        <v>378.7119889837915</v>
       </c>
       <c r="O21" t="n">
-        <v>19.47380652028682</v>
+        <v>19.46052386200822</v>
       </c>
       <c r="P21" t="n">
-        <v>318.3377299685309</v>
+        <v>318.0476088159119</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -13620,28 +13738,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.119842020272801</v>
+        <v>0.1598401518359664</v>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002089583862093347</v>
+        <v>0.003742631533162233</v>
       </c>
       <c r="M22" t="n">
-        <v>16.96597434654249</v>
+        <v>16.97909199475598</v>
       </c>
       <c r="N22" t="n">
-        <v>425.8701847114349</v>
+        <v>425.9041518063401</v>
       </c>
       <c r="O22" t="n">
-        <v>20.63662241529449</v>
+        <v>20.63744537985116</v>
       </c>
       <c r="P22" t="n">
-        <v>310.8503884135804</v>
+        <v>310.5104289115105</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -13692,28 +13810,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.06479289961118516</v>
+        <v>-0.045803742788787</v>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K23" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0006221207615108026</v>
+        <v>0.000316464441069586</v>
       </c>
       <c r="M23" t="n">
-        <v>17.63608334460282</v>
+        <v>17.55328855553791</v>
       </c>
       <c r="N23" t="n">
-        <v>439.3150325952396</v>
+        <v>435.5453276879098</v>
       </c>
       <c r="O23" t="n">
-        <v>20.9598433342246</v>
+        <v>20.86972275062393</v>
       </c>
       <c r="P23" t="n">
-        <v>307.4896494605642</v>
+        <v>307.336821520243</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -13770,28 +13888,28 @@
         <v>0.1057</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1089909857022565</v>
+        <v>-0.08570826397354053</v>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K24" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001576984754857347</v>
+        <v>0.0009928497740825382</v>
       </c>
       <c r="M24" t="n">
-        <v>17.6798375800778</v>
+        <v>17.58310240883096</v>
       </c>
       <c r="N24" t="n">
-        <v>456.1178985560171</v>
+        <v>452.4505432334338</v>
       </c>
       <c r="O24" t="n">
-        <v>21.35691687852011</v>
+        <v>21.27088487189552</v>
       </c>
       <c r="P24" t="n">
-        <v>302.8991809376849</v>
+        <v>302.6987498772928</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -13848,28 +13966,28 @@
         <v>0.0616</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2408411816109652</v>
+        <v>-0.1983363295314703</v>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K25" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L25" t="n">
-        <v>0.008496874813238242</v>
+        <v>0.005825091289174855</v>
       </c>
       <c r="M25" t="n">
-        <v>16.43292802816214</v>
+        <v>16.49711280439272</v>
       </c>
       <c r="N25" t="n">
-        <v>415.9204254882008</v>
+        <v>416.2640524772728</v>
       </c>
       <c r="O25" t="n">
-        <v>20.39412723036219</v>
+        <v>20.40255014642221</v>
       </c>
       <c r="P25" t="n">
-        <v>299.8579473744542</v>
+        <v>299.4935375897522</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -13926,28 +14044,28 @@
         <v>0.074</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2600102202170035</v>
+        <v>0.3432674121217129</v>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L26" t="n">
-        <v>0.009028370277117226</v>
+        <v>0.01545848242919234</v>
       </c>
       <c r="M26" t="n">
-        <v>16.28375769230357</v>
+        <v>16.47288836149581</v>
       </c>
       <c r="N26" t="n">
-        <v>454.9311710955456</v>
+        <v>465.529450657601</v>
       </c>
       <c r="O26" t="n">
-        <v>21.32911557227692</v>
+        <v>21.57613150352957</v>
       </c>
       <c r="P26" t="n">
-        <v>285.6237059126761</v>
+        <v>284.9218351711787</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -14004,28 +14122,28 @@
         <v>0.0466</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2117159849017133</v>
+        <v>0.2493521496353487</v>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K27" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L27" t="n">
-        <v>0.005515320561325643</v>
+        <v>0.007800041339593111</v>
       </c>
       <c r="M27" t="n">
-        <v>18.16126730942014</v>
+        <v>18.12958162023742</v>
       </c>
       <c r="N27" t="n">
-        <v>494.1679528669306</v>
+        <v>490.8473404241546</v>
       </c>
       <c r="O27" t="n">
-        <v>22.2298887281725</v>
+        <v>22.15507482325787</v>
       </c>
       <c r="P27" t="n">
-        <v>285.1243897023863</v>
+        <v>284.8212482982706</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -14082,28 +14200,28 @@
         <v>0.0639</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6083810691962681</v>
+        <v>-0.5627006225087307</v>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05351761455594006</v>
+        <v>0.04642712750391309</v>
       </c>
       <c r="M28" t="n">
-        <v>16.62654664839778</v>
+        <v>16.6411076380395</v>
       </c>
       <c r="N28" t="n">
-        <v>395.5459571290414</v>
+        <v>396.5347627395353</v>
       </c>
       <c r="O28" t="n">
-        <v>19.88833721378037</v>
+        <v>19.91318062840628</v>
       </c>
       <c r="P28" t="n">
-        <v>292.5192991784924</v>
+        <v>292.1201635452558</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -14160,28 +14278,28 @@
         <v>0.0755</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2686987664212985</v>
+        <v>-0.2229998820953665</v>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K29" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01201365733398174</v>
+        <v>0.008350408698916567</v>
       </c>
       <c r="M29" t="n">
-        <v>16.04210467585732</v>
+        <v>16.13031095534634</v>
       </c>
       <c r="N29" t="n">
-        <v>375.7693087775129</v>
+        <v>377.4399281463488</v>
       </c>
       <c r="O29" t="n">
-        <v>19.38477002126961</v>
+        <v>19.42781326208251</v>
       </c>
       <c r="P29" t="n">
-        <v>287.2691389287579</v>
+        <v>286.8936133225432</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -14238,28 +14356,28 @@
         <v>0.0569</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.03316808975093829</v>
+        <v>0.0192639819672239</v>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K30" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0002327832147279718</v>
+        <v>7.774354556111529e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>14.30136490946847</v>
+        <v>14.47651474490715</v>
       </c>
       <c r="N30" t="n">
-        <v>294.663860032871</v>
+        <v>300.16219412973</v>
       </c>
       <c r="O30" t="n">
-        <v>17.1657758354486</v>
+        <v>17.3251895842363</v>
       </c>
       <c r="P30" t="n">
-        <v>284.3632252909771</v>
+        <v>283.9198383721674</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -14316,28 +14434,28 @@
         <v>0.0567</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0705401211308212</v>
+        <v>-0.01949140550425827</v>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K31" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0009081341560017719</v>
+        <v>6.90996403124311e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>15.35319524215345</v>
+        <v>15.46797066374447</v>
       </c>
       <c r="N31" t="n">
-        <v>343.7005616483983</v>
+        <v>348.1045951108756</v>
       </c>
       <c r="O31" t="n">
-        <v>18.53916291660436</v>
+        <v>18.6575613387944</v>
       </c>
       <c r="P31" t="n">
-        <v>283.2890693484775</v>
+        <v>282.8603971404045</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -14394,28 +14512,28 @@
         <v>0.0583</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1608547062597677</v>
+        <v>-0.1180174395941972</v>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K32" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L32" t="n">
-        <v>0.004446026482542331</v>
+        <v>0.00240458759449147</v>
       </c>
       <c r="M32" t="n">
-        <v>15.82840835009687</v>
+        <v>15.93543248799172</v>
       </c>
       <c r="N32" t="n">
-        <v>365.1263368281553</v>
+        <v>366.9449284197187</v>
       </c>
       <c r="O32" t="n">
-        <v>19.10827927439191</v>
+        <v>19.15580665019666</v>
       </c>
       <c r="P32" t="n">
-        <v>287.5447179431324</v>
+        <v>287.1813473449158</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -14472,28 +14590,28 @@
         <v>0.0514</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4468147776572577</v>
+        <v>-0.426732695693587</v>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K33" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03189839534340599</v>
+        <v>0.02963352899783434</v>
       </c>
       <c r="M33" t="n">
-        <v>15.6412143407022</v>
+        <v>15.59311010858137</v>
       </c>
       <c r="N33" t="n">
-        <v>361.4354472909205</v>
+        <v>358.4678573505836</v>
       </c>
       <c r="O33" t="n">
-        <v>19.0114556857417</v>
+        <v>18.93324740636385</v>
       </c>
       <c r="P33" t="n">
-        <v>304.2413325112348</v>
+        <v>304.0621150211059</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -14550,28 +14668,28 @@
         <v>0.0519</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3020556794291001</v>
+        <v>-0.2769398051944946</v>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K34" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01562043866298801</v>
+        <v>0.01334698789776056</v>
       </c>
       <c r="M34" t="n">
-        <v>15.36155564353984</v>
+        <v>15.3517367666997</v>
       </c>
       <c r="N34" t="n">
-        <v>350.0221191845899</v>
+        <v>347.9958219147205</v>
       </c>
       <c r="O34" t="n">
-        <v>18.70887808460438</v>
+        <v>18.65464612140151</v>
       </c>
       <c r="P34" t="n">
-        <v>313.8655184214423</v>
+        <v>313.6472939638351</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -14628,28 +14746,28 @@
         <v>0.0568</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2859127172124459</v>
+        <v>-0.2516668382554514</v>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K35" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01341429290058449</v>
+        <v>0.01052433314822721</v>
       </c>
       <c r="M35" t="n">
-        <v>15.77546818746576</v>
+        <v>15.82631249020196</v>
       </c>
       <c r="N35" t="n">
-        <v>367.596925921221</v>
+        <v>367.0230014733368</v>
       </c>
       <c r="O35" t="n">
-        <v>19.17281737046543</v>
+        <v>19.15784438482933</v>
       </c>
       <c r="P35" t="n">
-        <v>320.7771533462828</v>
+        <v>320.4797803575579</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -14706,28 +14824,28 @@
         <v>0.0578</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.3241675769479133</v>
+        <v>-0.2809841116135322</v>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0212969595090462</v>
+        <v>0.01608910721834467</v>
       </c>
       <c r="M36" t="n">
-        <v>14.79662551272495</v>
+        <v>14.91260825167559</v>
       </c>
       <c r="N36" t="n">
-        <v>300.0396884905246</v>
+        <v>302.278000297756</v>
       </c>
       <c r="O36" t="n">
-        <v>17.32165374583283</v>
+        <v>17.38614391685966</v>
       </c>
       <c r="P36" t="n">
-        <v>336.3775350979083</v>
+        <v>336.0046269833128</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -14784,28 +14902,28 @@
         <v>0.0645</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2563173801619863</v>
+        <v>-0.2132377522653867</v>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K37" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01405061070646008</v>
+        <v>0.00976214127119468</v>
       </c>
       <c r="M37" t="n">
-        <v>13.70229983735904</v>
+        <v>13.82255737319398</v>
       </c>
       <c r="N37" t="n">
-        <v>289.0233267345191</v>
+        <v>291.4394232194256</v>
       </c>
       <c r="O37" t="n">
-        <v>17.00068606658329</v>
+        <v>17.07159697331874</v>
       </c>
       <c r="P37" t="n">
-        <v>330.6108224575046</v>
+        <v>330.2433661153645</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -14843,7 +14961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL101"/>
+  <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30699,6 +30817,174 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-34.486665949134505,173.0014375609866</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>-34.48740636152282,173.00142025851437</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>-34.48814427953364,173.00157289720926</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>-34.48885584224194,173.0017005791682</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>-34.48958815990589,173.00171323638227</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>-34.49032232712789,173.00183055746012</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>-34.49106988326977,173.00183805817585</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>-34.491808305860424,173.00192038566433</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>-34.49255147331863,173.00196375898946</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>-34.49327854400964,173.002139049161</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>-34.49401271112516,173.0022561062522</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>-34.494765179044,173.00223243260857</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>-34.49550453061518,173.00232718547295</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>-34.49623829210411,173.00245638139964</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>-34.49697689554425,173.0025452724042</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>-34.49773495487483,173.00249652465214</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>-34.498472110140206,173.0026037521902</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>-34.499204105230305,173.00279577699982</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>-34.49991235676503,173.0031160616434</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>-34.50067721587131,173.00306644039117</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>-34.50141410898768,173.00317917140194</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>-34.50213120332636,173.0034068326862</t>
+        </is>
+      </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>-34.502840601886874,173.00367914521362</t>
+        </is>
+      </c>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>-34.50356600135813,173.003829270753</t>
+        </is>
+      </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>-34.50426128060362,173.00396316147106</t>
+        </is>
+      </c>
+      <c r="AG102" t="inlineStr">
+        <is>
+          <t>-34.5049711717605,173.00398560075863</t>
+        </is>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>-34.50569996302032,173.00422103420246</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>-34.50643116141391,173.00441340604496</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>-34.50717674602541,173.00468354594003</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>-34.50789630675964,173.0049704695437</t>
+        </is>
+      </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0007/nzd0007.xlsx
+++ b/data/nzd0007/nzd0007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18324,7 +18324,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>-34.504975349686994,173.00391106616266</t>
+          <t>-34.50497534968699,173.00391106616266</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-34.49330861589567,173.00189250135188</t>
+          <t>-34.49330861589568,173.00189250135188</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">

--- a/data/nzd0007/nzd0007.xlsx
+++ b/data/nzd0007/nzd0007.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL102"/>
+  <dimension ref="A1:AL103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10964,6 +10964,116 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>301.8022222222222</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>280.9222222222222</v>
+      </c>
+      <c r="E103" t="n">
+        <v>308.4453846153846</v>
+      </c>
+      <c r="F103" t="n">
+        <v>323.2963636363637</v>
+      </c>
+      <c r="G103" t="n">
+        <v>341.775</v>
+      </c>
+      <c r="H103" t="n">
+        <v>335.24</v>
+      </c>
+      <c r="I103" t="n">
+        <v>334.0266666666667</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>356.7215789473684</v>
+      </c>
+      <c r="M103" t="n">
+        <v>357.97</v>
+      </c>
+      <c r="N103" t="n">
+        <v>349.0953846153847</v>
+      </c>
+      <c r="O103" t="n">
+        <v>338.4866666666667</v>
+      </c>
+      <c r="P103" t="n">
+        <v>333.9322222222222</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>331.28</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>322.23</v>
+      </c>
+      <c r="T103" t="n">
+        <v>320.7063636363636</v>
+      </c>
+      <c r="U103" t="n">
+        <v>309.5922222222222</v>
+      </c>
+      <c r="V103" t="n">
+        <v>305.6163636363636</v>
+      </c>
+      <c r="W103" t="n">
+        <v>302.5653846153846</v>
+      </c>
+      <c r="X103" t="n">
+        <v>294.7833333333333</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>287.27</v>
+      </c>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="n">
+        <v>279.62</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>288.21</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>284.2466666666667</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>280.17</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>274.63</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>271.32</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>277.6922222222223</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>293.9822222222222</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>305.29</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>316.88</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>317.0163636363636</v>
+      </c>
+      <c r="AL103" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10975,7 +11085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12023,6 +12133,16 @@
       </c>
       <c r="B104" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -12196,28 +12316,28 @@
         <v>0.0606</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09907934318796813</v>
+        <v>-0.1105319568191093</v>
       </c>
       <c r="J2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002147218047464206</v>
+        <v>0.002749766150194177</v>
       </c>
       <c r="M2" t="n">
-        <v>14.29892982576876</v>
+        <v>14.07289337591402</v>
       </c>
       <c r="N2" t="n">
-        <v>313.7999754968811</v>
+        <v>307.4207180785609</v>
       </c>
       <c r="O2" t="n">
-        <v>17.71440022966855</v>
+        <v>17.53341718201449</v>
       </c>
       <c r="P2" t="n">
-        <v>308.138299385893</v>
+        <v>308.23415521949</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12277,7 +12397,7 @@
         <v>0.1631178991918502</v>
       </c>
       <c r="J3" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K3" t="n">
         <v>48</v>
@@ -12352,28 +12472,28 @@
         <v>0.0523</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01715234143712766</v>
+        <v>-0.02986932025553828</v>
       </c>
       <c r="J4" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" t="n">
-        <v>4.396257037275753e-05</v>
+        <v>0.0001355513414612597</v>
       </c>
       <c r="M4" t="n">
-        <v>17.56551978324213</v>
+        <v>17.58642766260188</v>
       </c>
       <c r="N4" t="n">
-        <v>439.3761264681054</v>
+        <v>435.6645555328394</v>
       </c>
       <c r="O4" t="n">
-        <v>20.96130068645802</v>
+        <v>20.87257903405421</v>
       </c>
       <c r="P4" t="n">
-        <v>296.8125804992174</v>
+        <v>297.2242102480529</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12430,28 +12550,28 @@
         <v>0.0851</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1797736164180997</v>
+        <v>-0.1642946181704162</v>
       </c>
       <c r="J5" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K5" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005614331470238265</v>
+        <v>0.004827327625019473</v>
       </c>
       <c r="M5" t="n">
-        <v>15.11685650397679</v>
+        <v>14.92611301544382</v>
       </c>
       <c r="N5" t="n">
-        <v>365.3146357610908</v>
+        <v>358.8021240019512</v>
       </c>
       <c r="O5" t="n">
-        <v>19.11320579497565</v>
+        <v>18.94207285388669</v>
       </c>
       <c r="P5" t="n">
-        <v>307.6893734105105</v>
+        <v>307.5523803636964</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12508,28 +12628,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.005441840721179914</v>
+        <v>-0.01798558155974641</v>
       </c>
       <c r="J6" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="n">
-        <v>6.311779382928151e-06</v>
+        <v>7.101188183522567e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>13.88206951990748</v>
+        <v>13.70345403702286</v>
       </c>
       <c r="N6" t="n">
-        <v>301.846263387208</v>
+        <v>296.6869159615545</v>
       </c>
       <c r="O6" t="n">
-        <v>17.37372335992513</v>
+        <v>17.22460205524512</v>
       </c>
       <c r="P6" t="n">
-        <v>327.7915528183903</v>
+        <v>327.899476767273</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12586,28 +12706,28 @@
         <v>0.1072</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1434738551305911</v>
+        <v>-0.149004553740523</v>
       </c>
       <c r="J7" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002513995893486665</v>
+        <v>0.00278891987205232</v>
       </c>
       <c r="M7" t="n">
-        <v>17.87167524358106</v>
+        <v>17.55605220623725</v>
       </c>
       <c r="N7" t="n">
-        <v>486.2181498390597</v>
+        <v>476.7479072410734</v>
       </c>
       <c r="O7" t="n">
-        <v>22.05035486877841</v>
+        <v>21.83455763786099</v>
       </c>
       <c r="P7" t="n">
-        <v>347.2379748691117</v>
+        <v>347.2905543544332</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -12658,28 +12778,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.009634716469822795</v>
+        <v>-0.03763387506348443</v>
       </c>
       <c r="J8" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" t="n">
-        <v>1.241977505506142e-05</v>
+        <v>0.0001942362177685952</v>
       </c>
       <c r="M8" t="n">
-        <v>16.89431416626178</v>
+        <v>16.76312503341156</v>
       </c>
       <c r="N8" t="n">
-        <v>435.1958111934836</v>
+        <v>428.2489977294302</v>
       </c>
       <c r="O8" t="n">
-        <v>20.86134730053367</v>
+        <v>20.69417787034388</v>
       </c>
       <c r="P8" t="n">
-        <v>344.6984214816367</v>
+        <v>344.9693439652192</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -12736,28 +12856,28 @@
         <v>0.0825</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.16003162467486</v>
+        <v>-0.1905424285847149</v>
       </c>
       <c r="J9" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003194685858452173</v>
+        <v>0.004616658909117999</v>
       </c>
       <c r="M9" t="n">
-        <v>18.46350009464107</v>
+        <v>18.39289964043121</v>
       </c>
       <c r="N9" t="n">
-        <v>524.7243460047894</v>
+        <v>518.6719791086379</v>
       </c>
       <c r="O9" t="n">
-        <v>22.90686242165848</v>
+        <v>22.77437110237378</v>
       </c>
       <c r="P9" t="n">
-        <v>350.5471773220688</v>
+        <v>350.8093284343657</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -12811,7 +12931,7 @@
         <v>0.3779299207726743</v>
       </c>
       <c r="J10" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10" t="n">
         <v>55</v>
@@ -12889,7 +13009,7 @@
         <v>0.3817969353903879</v>
       </c>
       <c r="J11" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11" t="n">
         <v>66</v>
@@ -12958,28 +13078,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.1919412395539524</v>
+        <v>0.1731731455321358</v>
       </c>
       <c r="J12" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004618150529462239</v>
+        <v>0.003841727815501184</v>
       </c>
       <c r="M12" t="n">
-        <v>17.90138781276658</v>
+        <v>17.77647519349961</v>
       </c>
       <c r="N12" t="n">
-        <v>501.2194987860215</v>
+        <v>494.9232630330119</v>
       </c>
       <c r="O12" t="n">
-        <v>22.38793198993649</v>
+        <v>22.24687085935934</v>
       </c>
       <c r="P12" t="n">
-        <v>360.205031319666</v>
+        <v>360.3721334408822</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -13036,28 +13156,28 @@
         <v>0.0614</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07037117168052585</v>
+        <v>-0.0664479453774155</v>
       </c>
       <c r="J13" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005607624203629591</v>
+        <v>0.0005119972942445594</v>
       </c>
       <c r="M13" t="n">
-        <v>18.6726330326474</v>
+        <v>18.4559049080631</v>
       </c>
       <c r="N13" t="n">
-        <v>556.7868663392761</v>
+        <v>549.5966554543435</v>
       </c>
       <c r="O13" t="n">
-        <v>23.59633162886291</v>
+        <v>23.44347788734307</v>
       </c>
       <c r="P13" t="n">
-        <v>357.9404715899081</v>
+        <v>357.9067877305417</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -13114,28 +13234,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.112933027107156</v>
+        <v>-0.1184566646738513</v>
       </c>
       <c r="J14" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001748987069114416</v>
+        <v>0.001963940492442973</v>
       </c>
       <c r="M14" t="n">
-        <v>17.30326726786337</v>
+        <v>17.13112076849648</v>
       </c>
       <c r="N14" t="n">
-        <v>465.146660140745</v>
+        <v>459.8314509276187</v>
       </c>
       <c r="O14" t="n">
-        <v>21.56725898534037</v>
+        <v>21.44368090901417</v>
       </c>
       <c r="P14" t="n">
-        <v>354.8266561240033</v>
+        <v>354.8738042320708</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -13192,28 +13312,28 @@
         <v>0.0755</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04191761395194959</v>
+        <v>-0.0654589734232439</v>
       </c>
       <c r="J15" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003269527410298956</v>
+        <v>0.0008093952762462386</v>
       </c>
       <c r="M15" t="n">
-        <v>15.10138618542953</v>
+        <v>15.06741204207958</v>
       </c>
       <c r="N15" t="n">
-        <v>346.4007806203766</v>
+        <v>344.1073224347652</v>
       </c>
       <c r="O15" t="n">
-        <v>18.61184516968634</v>
+        <v>18.55012998430914</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9562307737352</v>
+        <v>352.1561034458144</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -13270,28 +13390,28 @@
         <v>0.0567</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04660036020700161</v>
+        <v>0.01957431721408714</v>
       </c>
       <c r="J16" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004438260343126998</v>
+        <v>7.9384462164378e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>13.95915806862649</v>
+        <v>13.953600626283</v>
       </c>
       <c r="N16" t="n">
-        <v>311.6824873865474</v>
+        <v>310.3580157955873</v>
       </c>
       <c r="O16" t="n">
-        <v>17.65453163883277</v>
+        <v>17.61698089331959</v>
       </c>
       <c r="P16" t="n">
-        <v>346.99970572302</v>
+        <v>347.2310098874821</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -13348,28 +13468,28 @@
         <v>0.0556</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0121167677866766</v>
+        <v>-0.03540564801093082</v>
       </c>
       <c r="J17" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" t="n">
-        <v>2.84567855537432e-05</v>
+        <v>0.0002467062037861956</v>
       </c>
       <c r="M17" t="n">
-        <v>14.71037559442886</v>
+        <v>14.6747509670174</v>
       </c>
       <c r="N17" t="n">
-        <v>319.1765624570808</v>
+        <v>317.2168640291162</v>
       </c>
       <c r="O17" t="n">
-        <v>17.86551321560847</v>
+        <v>17.81058292221555</v>
       </c>
       <c r="P17" t="n">
-        <v>343.8109909440745</v>
+        <v>344.0146914863707</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -13429,7 +13549,7 @@
         <v>-0.1346910446881041</v>
       </c>
       <c r="J18" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18" t="n">
         <v>92</v>
@@ -13504,28 +13624,28 @@
         <v>0.0435</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2163527634763317</v>
+        <v>0.190879844329683</v>
       </c>
       <c r="J19" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006624189637731037</v>
+        <v>0.005244156652805199</v>
       </c>
       <c r="M19" t="n">
-        <v>15.77003596250159</v>
+        <v>15.76154306145814</v>
       </c>
       <c r="N19" t="n">
-        <v>428.1651999574912</v>
+        <v>425.5237309178971</v>
       </c>
       <c r="O19" t="n">
-        <v>20.69215310105479</v>
+        <v>20.62822655775084</v>
       </c>
       <c r="P19" t="n">
-        <v>330.4913346329498</v>
+        <v>330.7157442150491</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -13582,28 +13702,28 @@
         <v>0.0663</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05622795995442068</v>
+        <v>0.04536810200958297</v>
       </c>
       <c r="J20" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005169620942311326</v>
+        <v>0.0003431986013988642</v>
       </c>
       <c r="M20" t="n">
-        <v>16.19154677815284</v>
+        <v>16.06677836326736</v>
       </c>
       <c r="N20" t="n">
-        <v>378.5503513428047</v>
+        <v>374.8822211235254</v>
       </c>
       <c r="O20" t="n">
-        <v>19.45637045655753</v>
+        <v>19.36187545470545</v>
       </c>
       <c r="P20" t="n">
-        <v>325.1875869923267</v>
+        <v>325.2813439473335</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -13660,28 +13780,28 @@
         <v>0.0525</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1892838666979458</v>
+        <v>0.1645243714550937</v>
       </c>
       <c r="J21" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005888760248047187</v>
+        <v>0.004526449455405146</v>
       </c>
       <c r="M21" t="n">
-        <v>15.93666541302429</v>
+        <v>15.86592761388331</v>
       </c>
       <c r="N21" t="n">
-        <v>378.7119889837915</v>
+        <v>376.4390398705669</v>
       </c>
       <c r="O21" t="n">
-        <v>19.46052386200822</v>
+        <v>19.40203700312333</v>
       </c>
       <c r="P21" t="n">
-        <v>318.0476088159119</v>
+        <v>318.2589788843718</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -13738,28 +13858,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1598401518359664</v>
+        <v>0.1428802945545974</v>
       </c>
       <c r="J22" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003742631533162233</v>
+        <v>0.003048294266175366</v>
       </c>
       <c r="M22" t="n">
-        <v>16.97909199475598</v>
+        <v>16.89834993778785</v>
       </c>
       <c r="N22" t="n">
-        <v>425.9041518063401</v>
+        <v>421.9414784806</v>
       </c>
       <c r="O22" t="n">
-        <v>20.63744537985116</v>
+        <v>20.5412141432925</v>
       </c>
       <c r="P22" t="n">
-        <v>310.5104289115105</v>
+        <v>310.6577295716685</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -13810,28 +13930,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.045803742788787</v>
+        <v>-0.05242760308953808</v>
       </c>
       <c r="J23" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K23" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000316464441069586</v>
+        <v>0.0004230039265856744</v>
       </c>
       <c r="M23" t="n">
-        <v>17.55328855553791</v>
+        <v>17.39745577955293</v>
       </c>
       <c r="N23" t="n">
-        <v>435.5453276879098</v>
+        <v>430.8466707278968</v>
       </c>
       <c r="O23" t="n">
-        <v>20.86972275062393</v>
+        <v>20.75684635795854</v>
       </c>
       <c r="P23" t="n">
-        <v>307.336821520243</v>
+        <v>307.39133652204</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -13888,28 +14008,28 @@
         <v>0.1057</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.08570826397354053</v>
+        <v>-0.09694721097796917</v>
       </c>
       <c r="J24" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K24" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0009928497740825382</v>
+        <v>0.001296108045738209</v>
       </c>
       <c r="M24" t="n">
-        <v>17.58310240883096</v>
+        <v>17.46081239653885</v>
       </c>
       <c r="N24" t="n">
-        <v>452.4505432334338</v>
+        <v>447.6730572562847</v>
       </c>
       <c r="O24" t="n">
-        <v>21.27088487189552</v>
+        <v>21.15828578255537</v>
       </c>
       <c r="P24" t="n">
-        <v>302.6987498772928</v>
+        <v>302.7975189459443</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -13966,28 +14086,28 @@
         <v>0.0616</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1983363295314703</v>
+        <v>-0.2126223241379837</v>
       </c>
       <c r="J25" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005825091289174855</v>
+        <v>0.006821950853560077</v>
       </c>
       <c r="M25" t="n">
-        <v>16.49711280439272</v>
+        <v>16.38204884024582</v>
       </c>
       <c r="N25" t="n">
-        <v>416.2640524772728</v>
+        <v>411.9599646365696</v>
       </c>
       <c r="O25" t="n">
-        <v>20.40255014642221</v>
+        <v>20.29679690583146</v>
       </c>
       <c r="P25" t="n">
-        <v>299.4935375897522</v>
+        <v>299.618662153016</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -14047,7 +14167,7 @@
         <v>0.3432674121217129</v>
       </c>
       <c r="J26" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K26" t="n">
         <v>74</v>
@@ -14122,28 +14242,28 @@
         <v>0.0466</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2493521496353487</v>
+        <v>0.2222546810743006</v>
       </c>
       <c r="J27" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K27" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007800041339593111</v>
+        <v>0.006361159934378913</v>
       </c>
       <c r="M27" t="n">
-        <v>18.12958162023742</v>
+        <v>18.03596759071299</v>
       </c>
       <c r="N27" t="n">
-        <v>490.8473404241546</v>
+        <v>486.1798722298704</v>
       </c>
       <c r="O27" t="n">
-        <v>22.15507482325787</v>
+        <v>22.04948689266647</v>
       </c>
       <c r="P27" t="n">
-        <v>284.8212482982706</v>
+        <v>285.0436309207995</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -14200,28 +14320,28 @@
         <v>0.0639</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5627006225087307</v>
+        <v>-0.541562200778353</v>
       </c>
       <c r="J28" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K28" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04642712750391309</v>
+        <v>0.0439279822545291</v>
       </c>
       <c r="M28" t="n">
-        <v>16.6411076380395</v>
+        <v>16.54145189571484</v>
       </c>
       <c r="N28" t="n">
-        <v>396.5347627395353</v>
+        <v>392.9464726119986</v>
       </c>
       <c r="O28" t="n">
-        <v>19.91318062840628</v>
+        <v>19.82287750585163</v>
       </c>
       <c r="P28" t="n">
-        <v>292.1201635452558</v>
+        <v>291.9315001297417</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -14278,28 +14398,28 @@
         <v>0.0755</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2229998820953665</v>
+        <v>-0.2171356612239193</v>
       </c>
       <c r="J29" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008350408698916567</v>
+        <v>0.008093056044146563</v>
       </c>
       <c r="M29" t="n">
-        <v>16.13031095534634</v>
+        <v>15.97683546622313</v>
       </c>
       <c r="N29" t="n">
-        <v>377.4399281463488</v>
+        <v>373.1509167317437</v>
       </c>
       <c r="O29" t="n">
-        <v>19.42781326208251</v>
+        <v>19.317114606787</v>
       </c>
       <c r="P29" t="n">
-        <v>286.8936133225432</v>
+        <v>286.8443868231818</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -14356,28 +14476,28 @@
         <v>0.0569</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0192639819672239</v>
+        <v>0.0114789928375037</v>
       </c>
       <c r="J30" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K30" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L30" t="n">
-        <v>7.774354556111529e-05</v>
+        <v>2.814303866849333e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>14.47651474490715</v>
+        <v>14.35933786041782</v>
       </c>
       <c r="N30" t="n">
-        <v>300.16219412973</v>
+        <v>297.0548713283741</v>
       </c>
       <c r="O30" t="n">
-        <v>17.3251895842363</v>
+        <v>17.23527984479434</v>
       </c>
       <c r="P30" t="n">
-        <v>283.9198383721674</v>
+        <v>283.9871128221287</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -14434,28 +14554,28 @@
         <v>0.0567</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.01949140550425827</v>
+        <v>-0.03382679080165442</v>
       </c>
       <c r="J31" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K31" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L31" t="n">
-        <v>6.90996403124311e-05</v>
+        <v>0.0002119285898213308</v>
       </c>
       <c r="M31" t="n">
-        <v>15.46797066374447</v>
+        <v>15.38576010027742</v>
       </c>
       <c r="N31" t="n">
-        <v>348.1045951108756</v>
+        <v>344.8816408442812</v>
       </c>
       <c r="O31" t="n">
-        <v>18.6575613387944</v>
+        <v>18.57098922632505</v>
       </c>
       <c r="P31" t="n">
-        <v>282.8603971404045</v>
+        <v>282.9834270709595</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -14512,28 +14632,28 @@
         <v>0.0583</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1180174395941972</v>
+        <v>-0.1417911692051532</v>
       </c>
       <c r="J32" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K32" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00240458759449147</v>
+        <v>0.003517939513643542</v>
       </c>
       <c r="M32" t="n">
-        <v>15.93543248799172</v>
+        <v>15.88429666813807</v>
       </c>
       <c r="N32" t="n">
-        <v>366.9449284197187</v>
+        <v>364.6036763564934</v>
       </c>
       <c r="O32" t="n">
-        <v>19.15580665019666</v>
+        <v>19.09459809360997</v>
       </c>
       <c r="P32" t="n">
-        <v>287.1813473449158</v>
+        <v>287.3876397949245</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -14590,28 +14710,28 @@
         <v>0.0514</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.426732695693587</v>
+        <v>-0.4566991687125813</v>
       </c>
       <c r="J33" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02963352899783434</v>
+        <v>0.03419837041873586</v>
       </c>
       <c r="M33" t="n">
-        <v>15.59311010858137</v>
+        <v>15.57016521879338</v>
       </c>
       <c r="N33" t="n">
-        <v>358.4678573505836</v>
+        <v>357.059099940665</v>
       </c>
       <c r="O33" t="n">
-        <v>18.93324740636385</v>
+        <v>18.89600751324642</v>
       </c>
       <c r="P33" t="n">
-        <v>304.0621150211059</v>
+        <v>304.3353671464536</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -14668,28 +14788,28 @@
         <v>0.0519</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.2769398051944946</v>
+        <v>-0.3008723333907774</v>
       </c>
       <c r="J34" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K34" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01334698789776056</v>
+        <v>0.01594924429213518</v>
       </c>
       <c r="M34" t="n">
-        <v>15.3517367666997</v>
+        <v>15.30496829101474</v>
       </c>
       <c r="N34" t="n">
-        <v>347.9958219147205</v>
+        <v>345.8357809489976</v>
       </c>
       <c r="O34" t="n">
-        <v>18.65464612140151</v>
+        <v>18.59666047840304</v>
       </c>
       <c r="P34" t="n">
-        <v>313.6472939638351</v>
+        <v>313.8597366041736</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -14746,28 +14866,28 @@
         <v>0.0568</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2516668382554514</v>
+        <v>-0.2683962218924655</v>
       </c>
       <c r="J35" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K35" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01052433314822721</v>
+        <v>0.01216300256101499</v>
       </c>
       <c r="M35" t="n">
-        <v>15.82631249020196</v>
+        <v>15.73133349207865</v>
       </c>
       <c r="N35" t="n">
-        <v>367.0230014733368</v>
+        <v>363.7127570187396</v>
       </c>
       <c r="O35" t="n">
-        <v>19.15784438482933</v>
+        <v>19.07125473110617</v>
       </c>
       <c r="P35" t="n">
-        <v>320.4797803575579</v>
+        <v>320.628238364351</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -14824,28 +14944,28 @@
         <v>0.0578</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.2809841116135322</v>
+        <v>-0.3041930396594743</v>
       </c>
       <c r="J36" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K36" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01608910721834467</v>
+        <v>0.01907568874152255</v>
       </c>
       <c r="M36" t="n">
-        <v>14.91260825167559</v>
+        <v>14.8611177860005</v>
       </c>
       <c r="N36" t="n">
-        <v>302.278000297756</v>
+        <v>300.3491762028031</v>
       </c>
       <c r="O36" t="n">
-        <v>17.38614391685966</v>
+        <v>17.3305849930925</v>
       </c>
       <c r="P36" t="n">
-        <v>336.0046269833128</v>
+        <v>336.2096502840303</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -14902,28 +15022,28 @@
         <v>0.0645</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2132377522653867</v>
+        <v>-0.2282343645527034</v>
       </c>
       <c r="J37" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K37" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00976214127119468</v>
+        <v>0.01136582898764538</v>
       </c>
       <c r="M37" t="n">
-        <v>13.82255737319398</v>
+        <v>13.74421563010932</v>
       </c>
       <c r="N37" t="n">
-        <v>291.4394232194256</v>
+        <v>288.7122113237803</v>
       </c>
       <c r="O37" t="n">
-        <v>17.07159697331874</v>
+        <v>16.99153351889641</v>
       </c>
       <c r="P37" t="n">
-        <v>330.2433661153645</v>
+        <v>330.3742120755111</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -14961,7 +15081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL102"/>
+  <dimension ref="A1:AL103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30985,6 +31105,178 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>-34.482347786710015,173.00275604087724</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>-34.48357680328897,173.001728594054</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-34.484348388175476,173.00158222877485</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-34.4850926192577,173.0012985398896</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-34.48588781704533,173.00118536887197</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-34.486655128436695,173.00107753516454</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>-34.48739468323796,173.00103169774187</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>-34.489624580180156,173.00141464935993</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>-34.490355421686075,173.00155923507737</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>-34.49109956155669,173.0015947411435</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>-34.49184597418776,173.00161155969656</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>-34.49258442328073,173.00169361470162</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>-34.49332036587678,173.0017961666266</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>-34.494799889836834,173.0019614220799</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>-34.495537232919844,173.00208986927976</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>-34.49628552421752,173.00212235620415</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>-34.49702131490512,173.0022311370297</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>-34.497755695083065,173.00234984764424</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>-34.49849874491651,173.0024180755164</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>-34.49925172714635,173.0024959201336</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>-34.500725958916526,173.0027834000985</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>-34.50143493602126,173.00305823305334</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>-34.50216696211033,173.00319918811493</t>
+        </is>
+      </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>-34.502899190113034,173.0033389337648</t>
+        </is>
+      </c>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>-34.50362628370203,173.00346112789302</t>
+        </is>
+      </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>-34.504301610855464,173.00358007498298</t>
+        </is>
+      </c>
+      <c r="AG103" t="inlineStr">
+        <is>
+          <t>-34.50498694434557,173.00370421209027</t>
+        </is>
+      </c>
+      <c r="AH103" t="inlineStr">
+        <is>
+          <t>-34.50571560206797,173.0039420342434</t>
+        </is>
+      </c>
+      <c r="AI103" t="inlineStr">
+        <is>
+          <t>-34.506447288239904,173.00412570863142</t>
+        </is>
+      </c>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>-34.50724210774398,173.00432367739046</t>
+        </is>
+      </c>
+      <c r="AK103" t="inlineStr">
+        <is>
+          <t>-34.50799203764401,173.00466774176496</t>
+        </is>
+      </c>
+      <c r="AL103" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0007/nzd0007.xlsx
+++ b/data/nzd0007/nzd0007.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL103"/>
+  <dimension ref="A1:AL104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10973,7 +10973,9 @@
       <c r="B103" t="n">
         <v>301.8022222222222</v>
       </c>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>269.2222222222222</v>
+      </c>
       <c r="D103" t="n">
         <v>280.9222222222222</v>
       </c>
@@ -10992,8 +10994,12 @@
       <c r="I103" t="n">
         <v>334.0266666666667</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>337.6433333333333</v>
+      </c>
+      <c r="K103" t="n">
+        <v>353.8322222222222</v>
+      </c>
       <c r="L103" t="n">
         <v>356.7215789473684</v>
       </c>
@@ -11071,6 +11077,110 @@
       <c r="AL103" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:17:48+00:00</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>287.0311111111111</v>
+      </c>
+      <c r="C104" t="n">
+        <v>308.6711111111111</v>
+      </c>
+      <c r="D104" t="n">
+        <v>319.0811111111111</v>
+      </c>
+      <c r="E104" t="n">
+        <v>341.9176923076923</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>377.33</v>
+      </c>
+      <c r="H104" t="n">
+        <v>366.0728571428572</v>
+      </c>
+      <c r="I104" t="n">
+        <v>361.3933333333333</v>
+      </c>
+      <c r="J104" t="n">
+        <v>367.0138095238095</v>
+      </c>
+      <c r="K104" t="n">
+        <v>370.9211111111111</v>
+      </c>
+      <c r="L104" t="n">
+        <v>355.53</v>
+      </c>
+      <c r="M104" t="n">
+        <v>355.84</v>
+      </c>
+      <c r="N104" t="n">
+        <v>352.7876923076923</v>
+      </c>
+      <c r="O104" t="n">
+        <v>350.0633333333333</v>
+      </c>
+      <c r="P104" t="n">
+        <v>348.0911111111111</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>327.61</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="n">
+        <v>338.4018181818182</v>
+      </c>
+      <c r="W104" t="n">
+        <v>322.8276923076923</v>
+      </c>
+      <c r="X104" t="n">
+        <v>324.4666666666667</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="n">
+        <v>315.29</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>299.7833333333333</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>290.11</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>280.74</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>304.2611111111111</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>315.3711111111111</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>341.7</v>
+      </c>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="n">
+        <v>334.0718181818182</v>
+      </c>
+      <c r="AL104" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11085,7 +11195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12143,6 +12253,16 @@
       </c>
       <c r="B105" t="n">
         <v>-0.35</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.76</v>
       </c>
     </row>
   </sheetData>
@@ -15081,7 +15201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL103"/>
+  <dimension ref="A1:AL104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31116,7 +31236,11 @@
           <t>-34.482347786710015,173.00275604087724</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>-34.482870687034755,173.00202807784814</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>-34.48357680328897,173.001728594054</t>
@@ -31147,8 +31271,16 @@
           <t>-34.48739468323796,173.00103169774187</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>-34.48814520702923,173.00103822794674</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>-34.488890727667,173.00125153789014</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>-34.489624580180156,173.00141464935993</t>
@@ -31274,6 +31406,166 @@
       <c r="AL103" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:17:48+00:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>-34.482286667324104,173.00261310727305</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>-34.48303391824935,173.0024098098204</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>-34.48373469722204,173.00209784598113</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>-34.48448689000922,173.0019061329906</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-34.485945027888405,173.00156638569615</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-34.4866652145476,173.001413118721</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>-34.48740363560981,173.00132955804423</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>-34.48814465240722,173.00135811048776</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>-34.48887633150976,173.00143684623075</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>-34.48962614627018,173.00140180982856</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>-34.490358221158395,173.00153628365072</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>-34.49109470872739,173.00163452728216</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>-34.49183075887109,173.0017363041573</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>-34.49256581406607,173.00184618524847</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>-34.49332518939289,173.0017566198132</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>-34.49697153888714,173.00258315447437</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>-34.497724932149,173.00256740598667</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>-34.498453044804236,173.00273665940924</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>-34.4992129398904,173.0027401489234</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>-34.50138520071963,173.00334703458324</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>-34.502138427351575,173.00336488430227</t>
+        </is>
+      </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>-34.50288093419689,173.00344494327675</t>
+        </is>
+      </c>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>-34.503611042610466,173.00355420557182</t>
+        </is>
+      </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>-34.504290894161045,173.00368187120284</t>
+        </is>
+      </c>
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t>-34.50497075816226,173.0039929793451</t>
+        </is>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>-34.505702571264834,173.00417450402566</t>
+        </is>
+      </c>
+      <c r="AI104" t="inlineStr">
+        <is>
+          <t>-34.50642510530201,173.00452144199255</t>
+        </is>
+      </c>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr">
+        <is>
+          <t>-34.50793715089767,173.00484130935337</t>
+        </is>
+      </c>
+      <c r="AL104" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0007/nzd0007.xlsx
+++ b/data/nzd0007/nzd0007.xlsx
@@ -12436,28 +12436,28 @@
         <v>0.0606</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1105319568191093</v>
+        <v>-0.163600716251656</v>
       </c>
       <c r="J2" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002749766150194177</v>
+        <v>0.006045755162221056</v>
       </c>
       <c r="M2" t="n">
-        <v>14.07289337591402</v>
+        <v>14.1539800393064</v>
       </c>
       <c r="N2" t="n">
-        <v>307.4207180785609</v>
+        <v>307.7234221512315</v>
       </c>
       <c r="O2" t="n">
-        <v>17.53341718201449</v>
+        <v>17.54204726225624</v>
       </c>
       <c r="P2" t="n">
-        <v>308.23415521949</v>
+        <v>308.684192730315</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12514,28 +12514,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1631178991918502</v>
+        <v>0.09613976000609967</v>
       </c>
       <c r="J3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004227915897003331</v>
+        <v>0.00147772749516295</v>
       </c>
       <c r="M3" t="n">
-        <v>16.09251892197864</v>
+        <v>16.31702883324163</v>
       </c>
       <c r="N3" t="n">
-        <v>423.4615154383359</v>
+        <v>427.7327169431403</v>
       </c>
       <c r="O3" t="n">
-        <v>20.57818056676382</v>
+        <v>20.68170004963664</v>
       </c>
       <c r="P3" t="n">
-        <v>297.2917470472474</v>
+        <v>297.8640475976691</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12592,28 +12592,28 @@
         <v>0.0523</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02986932025553828</v>
+        <v>0.03327167416553377</v>
       </c>
       <c r="J4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001355513414612597</v>
+        <v>0.0001690745832059193</v>
       </c>
       <c r="M4" t="n">
-        <v>17.58642766260188</v>
+        <v>17.60542778293064</v>
       </c>
       <c r="N4" t="n">
-        <v>435.6645555328394</v>
+        <v>436.6878598538262</v>
       </c>
       <c r="O4" t="n">
-        <v>20.87257903405421</v>
+        <v>20.89707778264287</v>
       </c>
       <c r="P4" t="n">
-        <v>297.2242102480529</v>
+        <v>296.6645338541056</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12670,28 +12670,28 @@
         <v>0.0851</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1642946181704162</v>
+        <v>-0.05514545215330086</v>
       </c>
       <c r="J5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004827327625019473</v>
+        <v>0.0005224146227094106</v>
       </c>
       <c r="M5" t="n">
-        <v>14.92611301544382</v>
+        <v>15.32524909508814</v>
       </c>
       <c r="N5" t="n">
-        <v>358.8021240019512</v>
+        <v>378.7473415897611</v>
       </c>
       <c r="O5" t="n">
-        <v>18.94207285388669</v>
+        <v>19.46143215669806</v>
       </c>
       <c r="P5" t="n">
-        <v>307.5523803636964</v>
+        <v>306.5753362145287</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12751,7 +12751,7 @@
         <v>-0.01798558155974641</v>
       </c>
       <c r="J6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="n">
         <v>55</v>
@@ -12826,28 +12826,28 @@
         <v>0.1072</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.149004553740523</v>
+        <v>-0.05054355044684705</v>
       </c>
       <c r="J7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00278891987205232</v>
+        <v>0.0003164849142472947</v>
       </c>
       <c r="M7" t="n">
-        <v>17.55605220623725</v>
+        <v>17.87555640204697</v>
       </c>
       <c r="N7" t="n">
-        <v>476.7479072410734</v>
+        <v>488.5682445703152</v>
       </c>
       <c r="O7" t="n">
-        <v>21.83455763786099</v>
+        <v>22.10357990395029</v>
       </c>
       <c r="P7" t="n">
-        <v>347.2905543544332</v>
+        <v>346.3439471183283</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -12898,28 +12898,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.03763387506348443</v>
+        <v>0.02738304253653944</v>
       </c>
       <c r="J8" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001942362177685952</v>
+        <v>0.0001035269816602735</v>
       </c>
       <c r="M8" t="n">
-        <v>16.76312503341156</v>
+        <v>16.80951592187017</v>
       </c>
       <c r="N8" t="n">
-        <v>428.2489977294302</v>
+        <v>428.9406808272252</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69417787034388</v>
+        <v>20.71088314937886</v>
       </c>
       <c r="P8" t="n">
-        <v>344.9693439652192</v>
+        <v>344.3332838161887</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -12976,28 +12976,28 @@
         <v>0.0825</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1905424285847149</v>
+        <v>-0.1537961551545332</v>
       </c>
       <c r="J9" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004616658909117999</v>
+        <v>0.003065623967519415</v>
       </c>
       <c r="M9" t="n">
-        <v>18.39289964043121</v>
+        <v>18.30556324232299</v>
       </c>
       <c r="N9" t="n">
-        <v>518.6719791086379</v>
+        <v>514.0636472639227</v>
       </c>
       <c r="O9" t="n">
-        <v>22.77437110237378</v>
+        <v>22.67297173429021</v>
       </c>
       <c r="P9" t="n">
-        <v>350.8093284343657</v>
+        <v>350.4899549867874</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -13048,28 +13048,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.3779299207726743</v>
+        <v>0.31807910644184</v>
       </c>
       <c r="J10" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01861128306264093</v>
+        <v>0.01370921950028892</v>
       </c>
       <c r="M10" t="n">
-        <v>17.83192237934097</v>
+        <v>17.82863410323316</v>
       </c>
       <c r="N10" t="n">
-        <v>500.3508228122232</v>
+        <v>494.4865885112845</v>
       </c>
       <c r="O10" t="n">
-        <v>22.36852303600359</v>
+        <v>22.23705440275947</v>
       </c>
       <c r="P10" t="n">
-        <v>354.1613634243619</v>
+        <v>354.6617913413366</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -13126,28 +13126,28 @@
         <v>0.0541</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3817969353903879</v>
+        <v>0.3539517168973302</v>
       </c>
       <c r="J11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01485045933687812</v>
+        <v>0.01334128611502439</v>
       </c>
       <c r="M11" t="n">
-        <v>21.016813735438</v>
+        <v>20.68261004777623</v>
       </c>
       <c r="N11" t="n">
-        <v>632.0686107935255</v>
+        <v>616.6841623156781</v>
       </c>
       <c r="O11" t="n">
-        <v>25.14097473833355</v>
+        <v>24.83312630974357</v>
       </c>
       <c r="P11" t="n">
-        <v>358.9910402583693</v>
+        <v>359.2287220676436</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -13198,28 +13198,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.1731731455321358</v>
+        <v>0.1527919213801566</v>
       </c>
       <c r="J12" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003841727815501184</v>
+        <v>0.003053546746266345</v>
       </c>
       <c r="M12" t="n">
-        <v>17.77647519349961</v>
+        <v>17.66435896497666</v>
       </c>
       <c r="N12" t="n">
-        <v>494.9232630330119</v>
+        <v>489.0280651978219</v>
       </c>
       <c r="O12" t="n">
-        <v>22.24687085935934</v>
+        <v>22.11397895444919</v>
       </c>
       <c r="P12" t="n">
-        <v>360.3721334408822</v>
+        <v>360.5555968869917</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -13276,28 +13276,28 @@
         <v>0.0614</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0664479453774155</v>
+        <v>-0.06725588261761718</v>
       </c>
       <c r="J13" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005119972942445594</v>
+        <v>0.0005368646526915377</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4559049080631</v>
+        <v>18.22351457151339</v>
       </c>
       <c r="N13" t="n">
-        <v>549.5966554543435</v>
+        <v>542.5523298165741</v>
       </c>
       <c r="O13" t="n">
-        <v>23.44347788734307</v>
+        <v>23.29275273162393</v>
       </c>
       <c r="P13" t="n">
-        <v>357.9067877305417</v>
+        <v>357.9137928665863</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -13354,28 +13354,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1184566646738513</v>
+        <v>-0.116722475492818</v>
       </c>
       <c r="J14" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001963940492442973</v>
+        <v>0.001946373392549994</v>
       </c>
       <c r="M14" t="n">
-        <v>17.13112076849648</v>
+        <v>16.9458314904543</v>
       </c>
       <c r="N14" t="n">
-        <v>459.8314509276187</v>
+        <v>454.5554731026613</v>
       </c>
       <c r="O14" t="n">
-        <v>21.44368090901417</v>
+        <v>21.32030659025947</v>
       </c>
       <c r="P14" t="n">
-        <v>354.8738042320708</v>
+        <v>354.8588521341995</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -13432,28 +13432,28 @@
         <v>0.0755</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0654589734232439</v>
+        <v>-0.06626240675023794</v>
       </c>
       <c r="J15" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008093952762462386</v>
+        <v>0.0008463300179325506</v>
       </c>
       <c r="M15" t="n">
-        <v>15.06741204207958</v>
+        <v>14.89893189721627</v>
       </c>
       <c r="N15" t="n">
-        <v>344.1073224347652</v>
+        <v>340.1541348327704</v>
       </c>
       <c r="O15" t="n">
-        <v>18.55012998430914</v>
+        <v>18.44326800848403</v>
       </c>
       <c r="P15" t="n">
-        <v>352.1561034458144</v>
+        <v>352.1629949738077</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -13510,28 +13510,28 @@
         <v>0.0567</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01957431721408714</v>
+        <v>0.02025160265764504</v>
       </c>
       <c r="J16" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L16" t="n">
-        <v>7.9384462164378e-05</v>
+        <v>8.671336057974877e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>13.953600626283</v>
+        <v>13.79921660074052</v>
       </c>
       <c r="N16" t="n">
-        <v>310.3580157955873</v>
+        <v>306.8326723937484</v>
       </c>
       <c r="O16" t="n">
-        <v>17.61698089331959</v>
+        <v>17.51663987166912</v>
       </c>
       <c r="P16" t="n">
-        <v>347.2310098874821</v>
+        <v>347.2251548837345</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -13588,28 +13588,28 @@
         <v>0.0556</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03540564801093082</v>
+        <v>-0.06444288373153087</v>
       </c>
       <c r="J17" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002467062037861956</v>
+        <v>0.0008267757940323417</v>
       </c>
       <c r="M17" t="n">
-        <v>14.6747509670174</v>
+        <v>14.67276733244998</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2168640291162</v>
+        <v>316.280893460098</v>
       </c>
       <c r="O17" t="n">
-        <v>17.81058292221555</v>
+        <v>17.78428782549636</v>
       </c>
       <c r="P17" t="n">
-        <v>344.0146914863707</v>
+        <v>344.2711159285607</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -13669,7 +13669,7 @@
         <v>-0.1346910446881041</v>
       </c>
       <c r="J18" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" t="n">
         <v>92</v>
@@ -13747,7 +13747,7 @@
         <v>0.190879844329683</v>
       </c>
       <c r="J19" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" t="n">
         <v>93</v>
@@ -13825,7 +13825,7 @@
         <v>0.04536810200958297</v>
       </c>
       <c r="J20" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="n">
         <v>94</v>
@@ -13903,7 +13903,7 @@
         <v>0.1645243714550937</v>
       </c>
       <c r="J21" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K21" t="n">
         <v>92</v>
@@ -13978,28 +13978,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1428802945545974</v>
+        <v>0.1879205219159034</v>
       </c>
       <c r="J22" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003048294266175366</v>
+        <v>0.005288386380480348</v>
       </c>
       <c r="M22" t="n">
-        <v>16.89834993778785</v>
+        <v>16.94519977078658</v>
       </c>
       <c r="N22" t="n">
-        <v>421.9414784806</v>
+        <v>423.5329611371268</v>
       </c>
       <c r="O22" t="n">
-        <v>20.5412141432925</v>
+        <v>20.57991645116974</v>
       </c>
       <c r="P22" t="n">
-        <v>310.6577295716685</v>
+        <v>310.2626901691796</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -14050,28 +14050,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.05242760308953808</v>
+        <v>-0.02223740532885486</v>
       </c>
       <c r="J23" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004230039265856744</v>
+        <v>7.713676195031383e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>17.39745577955293</v>
+        <v>17.39526886893712</v>
       </c>
       <c r="N23" t="n">
-        <v>430.8466707278968</v>
+        <v>429.1065862102092</v>
       </c>
       <c r="O23" t="n">
-        <v>20.75684635795854</v>
+        <v>20.71488803277028</v>
       </c>
       <c r="P23" t="n">
-        <v>307.39133652204</v>
+        <v>307.1403368737851</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -14128,28 +14128,28 @@
         <v>0.1057</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09694721097796917</v>
+        <v>-0.05064094367796329</v>
       </c>
       <c r="J24" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001296108045738209</v>
+        <v>0.0003563610017383034</v>
       </c>
       <c r="M24" t="n">
-        <v>17.46081239653885</v>
+        <v>17.47802404393729</v>
       </c>
       <c r="N24" t="n">
-        <v>447.6730572562847</v>
+        <v>448.9779997451232</v>
       </c>
       <c r="O24" t="n">
-        <v>21.15828578255537</v>
+        <v>21.18910096594764</v>
       </c>
       <c r="P24" t="n">
-        <v>302.7975189459443</v>
+        <v>302.3867439096433</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -14206,28 +14206,28 @@
         <v>0.0616</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2126223241379837</v>
+        <v>-0.1817666371644289</v>
       </c>
       <c r="J25" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K25" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006821950853560077</v>
+        <v>0.005065007636304575</v>
       </c>
       <c r="M25" t="n">
-        <v>16.38204884024582</v>
+        <v>16.38272792187751</v>
       </c>
       <c r="N25" t="n">
-        <v>411.9599646365696</v>
+        <v>410.0073223280966</v>
       </c>
       <c r="O25" t="n">
-        <v>20.29679690583146</v>
+        <v>20.24863754251373</v>
       </c>
       <c r="P25" t="n">
-        <v>299.618662153016</v>
+        <v>299.3457781935156</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -14287,7 +14287,7 @@
         <v>0.3432674121217129</v>
       </c>
       <c r="J26" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K26" t="n">
         <v>74</v>
@@ -14365,7 +14365,7 @@
         <v>0.2222546810743006</v>
       </c>
       <c r="J27" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K27" t="n">
         <v>78</v>
@@ -14440,28 +14440,28 @@
         <v>0.0639</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.541562200778353</v>
+        <v>-0.4667477086286723</v>
       </c>
       <c r="J28" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K28" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0439279822545291</v>
+        <v>0.03239999239032365</v>
       </c>
       <c r="M28" t="n">
-        <v>16.54145189571484</v>
+        <v>16.72558076146739</v>
       </c>
       <c r="N28" t="n">
-        <v>392.9464726119986</v>
+        <v>404.2533664660965</v>
       </c>
       <c r="O28" t="n">
-        <v>19.82287750585163</v>
+        <v>20.10605298078408</v>
       </c>
       <c r="P28" t="n">
-        <v>291.9315001297417</v>
+        <v>291.2573016391721</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -14518,28 +14518,28 @@
         <v>0.0755</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2171356612239193</v>
+        <v>-0.1815166861210974</v>
       </c>
       <c r="J29" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K29" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008093056044146563</v>
+        <v>0.005734202477649442</v>
       </c>
       <c r="M29" t="n">
-        <v>15.97683546622313</v>
+        <v>15.9949740958304</v>
       </c>
       <c r="N29" t="n">
-        <v>373.1509167317437</v>
+        <v>372.6471933919969</v>
       </c>
       <c r="O29" t="n">
-        <v>19.317114606787</v>
+        <v>19.30407193811702</v>
       </c>
       <c r="P29" t="n">
-        <v>286.8443868231818</v>
+        <v>286.5424760830094</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -14596,28 +14596,28 @@
         <v>0.0569</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0114789928375037</v>
+        <v>0.02202377928267747</v>
       </c>
       <c r="J30" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K30" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L30" t="n">
-        <v>2.814303866849333e-05</v>
+        <v>0.0001055166095077498</v>
       </c>
       <c r="M30" t="n">
-        <v>14.35933786041782</v>
+        <v>14.27086688472787</v>
       </c>
       <c r="N30" t="n">
-        <v>297.0548713283741</v>
+        <v>294.184512874271</v>
       </c>
       <c r="O30" t="n">
-        <v>17.23527984479434</v>
+        <v>17.15180786023068</v>
       </c>
       <c r="P30" t="n">
-        <v>283.9871128221287</v>
+        <v>283.8950913956178</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -14674,28 +14674,28 @@
         <v>0.0567</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.03382679080165442</v>
+        <v>-0.0316126954406916</v>
       </c>
       <c r="J31" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K31" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0002119285898213308</v>
+        <v>0.0001888059218212446</v>
       </c>
       <c r="M31" t="n">
-        <v>15.38576010027742</v>
+        <v>15.22906050769577</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8816408442812</v>
+        <v>341.1074680513398</v>
       </c>
       <c r="O31" t="n">
-        <v>18.57098922632505</v>
+        <v>18.46909494402311</v>
       </c>
       <c r="P31" t="n">
-        <v>282.9834270709595</v>
+        <v>282.9642366984104</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -14752,28 +14752,28 @@
         <v>0.0583</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1417911692051532</v>
+        <v>-0.147326689620963</v>
       </c>
       <c r="J32" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K32" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L32" t="n">
-        <v>0.003517939513643542</v>
+        <v>0.003869711950482468</v>
       </c>
       <c r="M32" t="n">
-        <v>15.88429666813807</v>
+        <v>15.73526022883251</v>
       </c>
       <c r="N32" t="n">
-        <v>364.6036763564934</v>
+        <v>360.6082557076982</v>
       </c>
       <c r="O32" t="n">
-        <v>19.09459809360997</v>
+        <v>18.98968814140185</v>
       </c>
       <c r="P32" t="n">
-        <v>287.3876397949245</v>
+        <v>287.4361687331836</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -14830,28 +14830,28 @@
         <v>0.0514</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4566991687125813</v>
+        <v>-0.4349270461596581</v>
       </c>
       <c r="J33" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K33" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03419837041873586</v>
+        <v>0.03158492379463429</v>
       </c>
       <c r="M33" t="n">
-        <v>15.57016521879338</v>
+        <v>15.53657796575681</v>
       </c>
       <c r="N33" t="n">
-        <v>357.059099940665</v>
+        <v>354.4633714350379</v>
       </c>
       <c r="O33" t="n">
-        <v>18.89600751324642</v>
+        <v>18.82719765220087</v>
       </c>
       <c r="P33" t="n">
-        <v>304.3353671464536</v>
+        <v>304.1348930459586</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -14908,28 +14908,28 @@
         <v>0.0519</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3008723333907774</v>
+        <v>-0.283880415417122</v>
       </c>
       <c r="J34" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K34" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01594924429213518</v>
+        <v>0.01446626412909002</v>
       </c>
       <c r="M34" t="n">
-        <v>15.30496829101474</v>
+        <v>15.24506100640709</v>
       </c>
       <c r="N34" t="n">
-        <v>345.8357809489976</v>
+        <v>342.89486640624</v>
       </c>
       <c r="O34" t="n">
-        <v>18.59666047840304</v>
+        <v>18.51742061968243</v>
       </c>
       <c r="P34" t="n">
-        <v>313.8597366041736</v>
+        <v>313.7074351232998</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -14986,28 +14986,28 @@
         <v>0.0568</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2683962218924655</v>
+        <v>-0.216479073231351</v>
       </c>
       <c r="J35" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01216300256101499</v>
+        <v>0.007918664876608639</v>
       </c>
       <c r="M35" t="n">
-        <v>15.73133349207865</v>
+        <v>15.90572801825841</v>
       </c>
       <c r="N35" t="n">
-        <v>363.7127570187396</v>
+        <v>368.0957792460302</v>
       </c>
       <c r="O35" t="n">
-        <v>19.07125473110617</v>
+        <v>19.18582235000705</v>
       </c>
       <c r="P35" t="n">
-        <v>320.628238364351</v>
+        <v>320.1629720822651</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -15067,7 +15067,7 @@
         <v>-0.3041930396594743</v>
       </c>
       <c r="J36" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36" t="n">
         <v>84</v>
@@ -15142,28 +15142,28 @@
         <v>0.0645</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2282343645527034</v>
+        <v>-0.2103986349027074</v>
       </c>
       <c r="J37" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K37" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01136582898764538</v>
+        <v>0.009833638289981517</v>
       </c>
       <c r="M37" t="n">
-        <v>13.74421563010932</v>
+        <v>13.70071836286392</v>
       </c>
       <c r="N37" t="n">
-        <v>288.7122113237803</v>
+        <v>286.3699974810473</v>
       </c>
       <c r="O37" t="n">
-        <v>16.99153351889641</v>
+        <v>16.92247019442042</v>
       </c>
       <c r="P37" t="n">
-        <v>330.3742120755111</v>
+        <v>330.2169923164845</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">

--- a/data/nzd0007/nzd0007.xlsx
+++ b/data/nzd0007/nzd0007.xlsx
@@ -12427,13 +12427,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0392</v>
+        <v>0.0398</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0606</v>
+        <v>0.0633</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1637008099989234</v>
@@ -12505,13 +12505,13 @@
         <v>0.02859647822704735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0384</v>
+        <v>0.0288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0577</v>
+        <v>0.047</v>
       </c>
       <c r="I3" t="n">
         <v>0.09603833082412463</v>
@@ -12583,13 +12583,13 @@
         <v>0.05719295645385815</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0368</v>
+        <v>0.0234</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0523</v>
+        <v>0.0373</v>
       </c>
       <c r="I4" t="n">
         <v>0.03317463211066356</v>
@@ -12661,13 +12661,13 @@
         <v>0.08578943468041608</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0523</v>
+        <v>0.0246</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0851</v>
+        <v>0.0321</v>
       </c>
       <c r="I5" t="n">
         <v>-0.05518876683922341</v>
@@ -12739,13 +12739,13 @@
         <v>0.1143859129066192</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0439</v>
+        <v>0.0228</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.0353</v>
       </c>
       <c r="I6" t="n">
         <v>-0.01788389358094567</v>
@@ -12817,13 +12817,13 @@
         <v>0.142357340405302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0609</v>
+        <v>0.0287</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1072</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>-0.05061781934290705</v>
@@ -12894,9 +12894,15 @@
       <c r="E8" t="n">
         <v>0.1709538186321391</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0433</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1955</v>
+      </c>
       <c r="I8" t="n">
         <v>0.02740949846724255</v>
       </c>
@@ -12967,13 +12973,13 @@
         <v>0.1995502968588431</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0487</v>
+        <v>0.0543</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0825</v>
+        <v>0.1138</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1537796852267722</v>
@@ -13044,9 +13050,15 @@
       <c r="E10" t="n">
         <v>0.2281467750855471</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0704</v>
+      </c>
       <c r="I10" t="n">
         <v>0.3179991478541985</v>
       </c>
@@ -13117,13 +13129,13 @@
         <v>0.2566267938354026</v>
       </c>
       <c r="F11" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0383</v>
+        <v>0.0473</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0541</v>
+        <v>0.0929</v>
       </c>
       <c r="I11" t="n">
         <v>0.353884365750436</v>
@@ -13194,9 +13206,15 @@
       <c r="E12" t="n">
         <v>0.2852232720621589</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0535</v>
+      </c>
       <c r="I12" t="n">
         <v>0.1527500549375971</v>
       </c>
@@ -13267,13 +13285,13 @@
         <v>0.3138197502887597</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0437</v>
+        <v>0.0303</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0614</v>
+        <v>0.0434</v>
       </c>
       <c r="I13" t="n">
         <v>-0.06725588261761684</v>
@@ -13345,13 +13363,13 @@
         <v>0.3424162285154922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0548</v>
+        <v>0.0416</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0824</v>
+        <v>0.0688</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1167095835500918</v>
@@ -13423,13 +13441,13 @@
         <v>0.3710127067422485</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0529</v>
+        <v>0.0444</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0755</v>
+        <v>0.0736</v>
       </c>
       <c r="I15" t="n">
         <v>-0.0662305481812366</v>
@@ -13501,13 +13519,13 @@
         <v>0.3996091849691128</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0408</v>
+        <v>0.044</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0567</v>
+        <v>0.0673</v>
       </c>
       <c r="I16" t="n">
         <v>0.02020514631540306</v>
@@ -13582,10 +13600,10 @@
         <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0433</v>
+        <v>0.044</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0556</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>-0.0644428837315305</v>
@@ -13657,13 +13675,13 @@
         <v>0.4568021414224699</v>
       </c>
       <c r="F18" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0475</v>
+        <v>0.0435</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.0665</v>
       </c>
       <c r="I18" t="n">
         <v>-0.1346522564175471</v>
@@ -13735,13 +13753,13 @@
         <v>0.485398619649358</v>
       </c>
       <c r="F19" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0335</v>
+        <v>0.0437</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0435</v>
+        <v>0.0692</v>
       </c>
       <c r="I19" t="n">
         <v>0.1908852326598943</v>
@@ -13816,10 +13834,10 @@
         <v>0.055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0489</v>
+        <v>0.0449</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0663</v>
+        <v>0.0704</v>
       </c>
       <c r="I20" t="n">
         <v>0.04542655787616798</v>
@@ -13891,13 +13909,13 @@
         <v>0.5425898244743548</v>
       </c>
       <c r="F21" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0387</v>
+        <v>0.0423</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0525</v>
+        <v>0.0697</v>
       </c>
       <c r="I21" t="n">
         <v>0.1644754065612523</v>
@@ -13969,13 +13987,13 @@
         <v>0.5711863027010583</v>
       </c>
       <c r="F22" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0488</v>
+        <v>0.0386</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
         <v>0.1879776241919779</v>
@@ -14046,9 +14064,15 @@
       <c r="E23" t="n">
         <v>0.5997827809276306</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0565</v>
+      </c>
       <c r="I23" t="n">
         <v>-0.0222093538196061</v>
       </c>
@@ -14119,13 +14143,13 @@
         <v>0.6283792591541199</v>
       </c>
       <c r="F24" t="n">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0599</v>
+        <v>0.0371</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1057</v>
+        <v>0.061</v>
       </c>
       <c r="I24" t="n">
         <v>-0.0506907611706675</v>
@@ -14197,13 +14221,13 @@
         <v>0.6569735928403949</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04</v>
+        <v>0.0334</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0616</v>
+        <v>0.0519</v>
       </c>
       <c r="I25" t="n">
         <v>-0.1817666371644281</v>
@@ -14275,13 +14299,13 @@
         <v>0.685570071067076</v>
       </c>
       <c r="F26" t="n">
-        <v>0.055</v>
+        <v>0.025</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0457</v>
+        <v>0.0195</v>
       </c>
       <c r="H26" t="n">
-        <v>0.074</v>
+        <v>0.0309</v>
       </c>
       <c r="I26" t="n">
         <v>0.3433426019671189</v>
@@ -14353,13 +14377,13 @@
         <v>0.7141665492935398</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0342</v>
+        <v>0.029</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0466</v>
+        <v>0.0427</v>
       </c>
       <c r="I27" t="n">
         <v>0.2222546810743003</v>
@@ -14431,13 +14455,13 @@
         <v>0.7427630275203513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0446</v>
+        <v>0.0319</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0639</v>
+        <v>0.0517</v>
       </c>
       <c r="I28" t="n">
         <v>-0.4667477086286716</v>
@@ -14509,13 +14533,13 @@
         <v>0.7713595057471626</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0527</v>
+        <v>0.0381</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0755</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="I29" t="n">
         <v>-0.1814888606011392</v>
@@ -14590,10 +14614,10 @@
         <v>0.05</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0439</v>
+        <v>0.0393</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0569</v>
+        <v>0.0708</v>
       </c>
       <c r="I30" t="n">
         <v>0.02202377928267766</v>
@@ -14668,10 +14692,10 @@
         <v>0.05</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0429</v>
+        <v>0.0404</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0567</v>
+        <v>0.0684</v>
       </c>
       <c r="I31" t="n">
         <v>-0.03161269544069151</v>
@@ -14746,10 +14770,10 @@
         <v>0.05</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0438</v>
+        <v>0.0404</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0583</v>
+        <v>0.0701</v>
       </c>
       <c r="I32" t="n">
         <v>-0.1473266896209632</v>
@@ -14821,13 +14845,13 @@
         <v>0.8857121910102537</v>
       </c>
       <c r="F33" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0394</v>
+        <v>0.0424</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0514</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="I33" t="n">
         <v>-0.434969508145263</v>
@@ -14899,13 +14923,13 @@
         <v>0.9143086692370839</v>
       </c>
       <c r="F34" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0394</v>
+        <v>0.0374</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0519</v>
+        <v>0.0675</v>
       </c>
       <c r="I34" t="n">
         <v>-0.2839257846354282</v>
@@ -14977,13 +15001,13 @@
         <v>0.9429051474637811</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G35" t="n">
-        <v>0.042</v>
+        <v>0.035</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0568</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="I35" t="n">
         <v>-0.2164790732313507</v>
@@ -15055,13 +15079,13 @@
         <v>0.9715016256905503</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0417</v>
+        <v>0.0436</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0578</v>
+        <v>0.0713</v>
       </c>
       <c r="I36" t="n">
         <v>-0.3041930396594743</v>
@@ -15133,13 +15157,13 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0473</v>
+        <v>0.0493</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0645</v>
+        <v>0.0823</v>
       </c>
       <c r="I37" t="n">
         <v>-0.2103294972716087</v>
